--- a/etf_dfs/EPOL.xlsx
+++ b/etf_dfs/EPOL.xlsx
@@ -1,78 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>Adj Close</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Return</t>
-  </si>
-  <si>
-    <t>Volatility</t>
-  </si>
-  <si>
-    <t>Trend</t>
-  </si>
-  <si>
-    <t>EPOL</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -87,38 +49,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -406,4900 +426,4953 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Adj Close</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Return</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Volatility</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Trend</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>EPOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>40299</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>26.23999977111816</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>26.23999977111816</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>25.79999923706055</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>25.79999923706055</v>
       </c>
-      <c r="F2">
-        <v>19.15179443359375</v>
-      </c>
-      <c r="G2">
+      <c r="F2" t="n">
+        <v>19.15179252624512</v>
+      </c>
+      <c r="G2" t="n">
         <v>320100</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>40330</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>23.8799991607666</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>24.23999977111816</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>23.80999946594238</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>23.94000053405762</v>
       </c>
-      <c r="F3">
-        <v>17.88903999328613</v>
-      </c>
-      <c r="G3">
+      <c r="F3" t="n">
+        <v>17.88903617858887</v>
+      </c>
+      <c r="G3" t="n">
         <v>3100</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>-0.07209297511649237</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>40360</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>28.3700008392334</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>28.80999946594238</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>28.31999969482422</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>28.80999946594238</v>
       </c>
-      <c r="F4">
-        <v>21.52812194824219</v>
-      </c>
-      <c r="G4">
+      <c r="F4" t="n">
+        <v>21.52811813354492</v>
+      </c>
+      <c r="G4" t="n">
         <v>28900</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>0.2034251805866332</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>0.1948207562376911</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>40391</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>27.5</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>27.75</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>27.32999992370605</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>27.32999992370605</v>
       </c>
-      <c r="F5">
-        <v>20.42219734191895</v>
-      </c>
-      <c r="G5">
+      <c r="F5" t="n">
+        <v>20.42219924926758</v>
+      </c>
+      <c r="G5" t="n">
         <v>26600</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>-0.05137103678137522</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>0.1534387854246015</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="2">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>40422</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>32.09999847412109</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>32.22000122070312</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>31.77000045776367</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>32.15000152587891</v>
       </c>
-      <c r="F6">
-        <v>24.02391815185547</v>
-      </c>
-      <c r="G6">
+      <c r="F6" t="n">
+        <v>24.02391624450684</v>
+      </c>
+      <c r="G6" t="n">
         <v>19200</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>0.1763630302095969</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>0.1459412887286462</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="2">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>40452</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>33.81000137329102</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>34.36000061035156</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>33.68999862670898</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>34.36000061035156</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>25.67532730102539</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>35400</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>0.06874024819854929</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>0.1264060380002376</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="2">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>40483</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>30.39999961853027</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>30.70999908447266</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>30.39999961853027</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>30.46999931335449</v>
       </c>
-      <c r="F8">
-        <v>22.76854705810547</v>
-      </c>
-      <c r="G8">
+      <c r="F8" t="n">
+        <v>22.76854515075684</v>
+      </c>
+      <c r="G8" t="n">
         <v>40100</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>-0.1132130741530062</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>0.1344502566114512</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="2">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>40513</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>33.43000030517578</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>33.68999862670898</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>33.34999847412109</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>33.59000015258789</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>25.24915885925293</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>46000</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>0.1023958289971458</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>0.1253276383109495</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="2">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>40544</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>33.72000122070312</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>34.16999816894531</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>33.63000106811523</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>34.02999877929688</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>25.57989883422852</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>50700</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>0.01309909570438283</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>0.1165740519802401</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="2">
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>40575</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>34.15000152587891</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>34.29999923706055</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>34</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>34.29000091552734</v>
       </c>
-      <c r="F11">
-        <v>25.77534294128418</v>
-      </c>
-      <c r="G11">
+      <c r="F11" t="n">
+        <v>25.77534103393555</v>
+      </c>
+      <c r="G11" t="n">
         <v>14300</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>0.007640380416018333</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>0.109607789231346</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="2">
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>40603</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>35.61000061035156</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>35.90999984741211</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>35.61000061035156</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>35.79999923706055</v>
       </c>
-      <c r="F12">
-        <v>26.91038513183594</v>
-      </c>
-      <c r="G12">
+      <c r="F12" t="n">
+        <v>26.91039085388184</v>
+      </c>
+      <c r="G12" t="n">
         <v>42400</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>0.04403611202149138</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>0.1033616864451441</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="2">
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>40634</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>39.54999923706055</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>39.77000045776367</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>39.40000152587891</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>39.61999893188477</v>
       </c>
-      <c r="F13">
-        <v>29.78183364868164</v>
-      </c>
-      <c r="G13">
+      <c r="F13" t="n">
+        <v>29.78183174133301</v>
+      </c>
+      <c r="G13" t="n">
         <v>91000</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>0.1067039043640456</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>0.1002277778938633</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="2">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>40664</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>38.15999984741211</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>38.43000030517578</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>37.90000152587891</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>38.43000030517578</v>
       </c>
-      <c r="F14">
-        <v>28.88732528686523</v>
-      </c>
-      <c r="G14">
+      <c r="F14" t="n">
+        <v>28.88731956481934</v>
+      </c>
+      <c r="G14" t="n">
         <v>226900</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>-0.03003530183720715</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="n">
         <v>0.09793405032858549</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="n">
         <v>0.4895349395969284</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <v>0.4895349395969284</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="2">
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>40695</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>36.36999893188477</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>36.77999877929688</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>36.29999923706055</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>36.77999877929688</v>
       </c>
-      <c r="F15">
-        <v>27.82939910888672</v>
-      </c>
-      <c r="G15">
+      <c r="F15" t="n">
+        <v>27.82940292358398</v>
+      </c>
+      <c r="G15" t="n">
         <v>62000</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>-0.04293524623409084</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>0.09641258851834286</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>0.5363407668672675</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>0.5363407668672675</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="2">
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>40725</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>34.65999984741211</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>35.2400016784668</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>34.52000045776367</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>34.93000030517578</v>
       </c>
-      <c r="F16">
-        <v>26.42960929870605</v>
-      </c>
-      <c r="G16">
+      <c r="F16" t="n">
+        <v>26.42960739135742</v>
+      </c>
+      <c r="G16" t="n">
         <v>88100</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>-0.05029903576729977</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="n">
         <v>0.09519045795208969</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="n">
         <v>0.2124262739563092</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <v>0.2124262739563092</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="2">
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>40756</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>30.22999954223633</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>30.70999908447266</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>30.21999931335449</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>30.39999961853027</v>
       </c>
-      <c r="F17">
-        <v>23.00200843811035</v>
-      </c>
-      <c r="G17">
+      <c r="F17" t="n">
+        <v>23.00201034545898</v>
+      </c>
+      <c r="G17" t="n">
         <v>140600</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>-0.1296879658479211</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="n">
         <v>0.1001380164228733</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="n">
         <v>0.1123307611926225</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <v>0.1123307611926225</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="2">
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>40787</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>23.78000068664551</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>24.07999992370605</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>23.23999977111816</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>23.23999977111816</v>
       </c>
-      <c r="F18">
-        <v>17.58442878723145</v>
-      </c>
-      <c r="G18">
+      <c r="F18" t="n">
+        <v>17.58442687988281</v>
+      </c>
+      <c r="G18" t="n">
         <v>113500</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="n">
         <v>-0.235526313725601</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="n">
         <v>0.1153172378885649</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="n">
         <v>-0.27713845511294</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="n">
         <v>-0.27713845511294</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="2">
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>40817</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>27.88999938964844</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>27.88999938964844</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>26.71999931335449</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>26.79000091552734</v>
       </c>
-      <c r="F19">
-        <v>20.2705192565918</v>
-      </c>
-      <c r="G19">
+      <c r="F19" t="n">
+        <v>20.27052307128906</v>
+      </c>
+      <c r="G19" t="n">
         <v>54000</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="n">
         <v>0.1527539233808854</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="n">
         <v>0.1176546175274256</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="n">
         <v>-0.2203143061802979</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="n">
         <v>-0.2203143061802979</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="2">
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>40848</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>24.29999923706055</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>24.67000007629395</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>24.14999961853027</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>24.6299991607666</v>
       </c>
-      <c r="F20">
-        <v>18.63616371154785</v>
-      </c>
-      <c r="G20">
+      <c r="F20" t="n">
+        <v>18.63616561889648</v>
+      </c>
+      <c r="G20" t="n">
         <v>121700</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="n">
         <v>-0.08062716240927104</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="n">
         <v>0.1160726483301649</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="n">
         <v>-0.1916639410631137</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="n">
         <v>-0.1916639410631137</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="2">
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>40878</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>21.93000030517578</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>21.93000030517578</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>21.61000061035156</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>21.63999938964844</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>17.16151428222656</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="n">
         <v>78100</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="n">
         <v>-0.1213966655703735</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="n">
         <v>0.1164046205305134</v>
       </c>
-      <c r="J21">
+      <c r="J21" t="n">
         <v>-0.3557606641457185</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="n">
         <v>-0.3557606641457185</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="2">
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>40909</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>25.45000076293945</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>25.6200008392334</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>25.11000061035156</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>25.30999946594238</v>
       </c>
-      <c r="F22">
-        <v>20.07199096679688</v>
-      </c>
-      <c r="G22">
+      <c r="F22" t="n">
+        <v>20.07199287414551</v>
+      </c>
+      <c r="G22" t="n">
         <v>71400</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="n">
         <v>0.1695933539651346</v>
       </c>
-      <c r="I22">
+      <c r="I22" t="n">
         <v>0.1196736616299148</v>
       </c>
-      <c r="J22">
+      <c r="J22" t="n">
         <v>-0.2562444791699362</v>
       </c>
-      <c r="K22">
+      <c r="K22" t="n">
         <v>-0.2562444791699362</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="2">
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>40940</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>26.79000091552734</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>26.97999954223633</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>26.23999977111816</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>26.27000045776367</v>
       </c>
-      <c r="F23">
-        <v>20.83331680297852</v>
-      </c>
-      <c r="G23">
+      <c r="F23" t="n">
+        <v>20.83331489562988</v>
+      </c>
+      <c r="G23" t="n">
         <v>61200</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="n">
         <v>0.03792971205365236</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="n">
         <v>0.1168529618610579</v>
       </c>
-      <c r="J23">
+      <c r="J23" t="n">
         <v>-0.2338874378429083</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="n">
         <v>-0.2338874378429083</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="2">
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>40969</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>25.94000053405762</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>26.06999969482422</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>25.68000030517578</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>25.95000076293945</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="n">
         <v>20.57954216003418</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="n">
         <v>94700</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="n">
         <v>-0.01218118345063246</v>
       </c>
-      <c r="I24">
+      <c r="I24" t="n">
         <v>0.1141132393407449</v>
       </c>
-      <c r="J24">
+      <c r="J24" t="n">
         <v>-0.2751396280456975</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="n">
         <v>-0.2751396280456975</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="2">
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>41000</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>25</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>25.01000022888184</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>24.88999938964844</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>25</v>
       </c>
-      <c r="F25">
-        <v>19.82614326477051</v>
-      </c>
-      <c r="G25">
+      <c r="F25" t="n">
+        <v>19.82614517211914</v>
+      </c>
+      <c r="G25" t="n">
         <v>20000</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="n">
         <v>-0.03660889152250812</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="n">
         <v>0.1118516097106644</v>
       </c>
-      <c r="J25">
+      <c r="J25" t="n">
         <v>-0.3690055357401615</v>
       </c>
-      <c r="K25">
+      <c r="K25" t="n">
         <v>-0.3690055357401615</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="2">
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>41030</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>20.72999954223633</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>21.04999923706055</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>20.51000022888184</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>20.89999961853027</v>
       </c>
-      <c r="F26">
-        <v>16.57465934753418</v>
-      </c>
-      <c r="G26">
+      <c r="F26" t="n">
+        <v>16.57465744018555</v>
+      </c>
+      <c r="G26" t="n">
         <v>80500</v>
       </c>
-      <c r="H26">
+      <c r="H26" t="n">
         <v>-0.164000015258789</v>
       </c>
-      <c r="I26">
+      <c r="I26" t="n">
         <v>0.1146813158366278</v>
       </c>
-      <c r="J26">
+      <c r="J26" t="n">
         <v>-0.4561540605630584</v>
       </c>
-      <c r="K26">
+      <c r="K26" t="n">
         <v>-0.4561540605630584</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="2">
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>41061</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>23.72999954223633</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>23.94000053405762</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>23.60000038146973</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>23.79999923706055</v>
       </c>
-      <c r="F27">
-        <v>19.10853576660156</v>
-      </c>
-      <c r="G27">
+      <c r="F27" t="n">
+        <v>19.10853958129883</v>
+      </c>
+      <c r="G27" t="n">
         <v>182700</v>
       </c>
-      <c r="H27">
+      <c r="H27" t="n">
         <v>0.1387559651416972</v>
       </c>
-      <c r="I27">
+      <c r="I27" t="n">
         <v>0.1157612573078438</v>
       </c>
-      <c r="J27">
+      <c r="J27" t="n">
         <v>-0.3529091890438738</v>
       </c>
-      <c r="K27">
+      <c r="K27" t="n">
         <v>-0.3529091890438738</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="2">
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>41091</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>23.27000045776367</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>23.36000061035156</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>23.17000007629395</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>23.21999931335449</v>
       </c>
-      <c r="F28">
-        <v>18.64287185668945</v>
-      </c>
-      <c r="G28">
+      <c r="F28" t="n">
+        <v>18.64286994934082</v>
+      </c>
+      <c r="G28" t="n">
         <v>65600</v>
       </c>
-      <c r="H28">
+      <c r="H28" t="n">
         <v>-0.02436974547473514</v>
       </c>
-      <c r="I28">
+      <c r="I28" t="n">
         <v>0.113551751864565</v>
       </c>
-      <c r="J28">
+      <c r="J28" t="n">
         <v>-0.3352419378618257</v>
       </c>
-      <c r="K28">
+      <c r="K28" t="n">
         <v>-0.3352419378618257</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="2">
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>41122</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>24.40999984741211</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>24.53000068664551</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>24.22999954223633</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>24.38999938964844</v>
       </c>
-      <c r="F29">
-        <v>19.58224296569824</v>
-      </c>
-      <c r="G29">
+      <c r="F29" t="n">
+        <v>19.58223533630371</v>
+      </c>
+      <c r="G29" t="n">
         <v>86100</v>
       </c>
-      <c r="H29">
+      <c r="H29" t="n">
         <v>0.05038760167495115</v>
       </c>
-      <c r="I29">
+      <c r="I29" t="n">
         <v>0.111732241259781</v>
       </c>
-      <c r="J29">
+      <c r="J29" t="n">
         <v>-0.1976973784308356</v>
       </c>
-      <c r="K29">
+      <c r="K29" t="n">
         <v>-0.1976973784308356</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="2">
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>41153</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>26.5</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>26.56999969482422</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>26.27000045776367</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>26.35000038146973</v>
       </c>
-      <c r="F30">
-        <v>21.15588188171387</v>
-      </c>
-      <c r="G30">
+      <c r="F30" t="n">
+        <v>21.1558837890625</v>
+      </c>
+      <c r="G30" t="n">
         <v>44600</v>
       </c>
-      <c r="H30">
+      <c r="H30" t="n">
         <v>0.08036084628411877</v>
       </c>
-      <c r="I30">
+      <c r="I30" t="n">
         <v>0.110589666131466</v>
       </c>
-      <c r="J30">
+      <c r="J30" t="n">
         <v>0.1338210258597574</v>
       </c>
-      <c r="K30">
+      <c r="K30" t="n">
         <v>0.1338210258597574</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="2">
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>41183</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>26.22999954223633</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>26.34000015258789</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>25.85000038146973</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>25.95000076293945</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="n">
         <v>20.83473205566406</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="n">
         <v>72200</v>
       </c>
-      <c r="H31">
+      <c r="H31" t="n">
         <v>-0.01518025095785458</v>
       </c>
-      <c r="I31">
+      <c r="I31" t="n">
         <v>0.1086729373747604</v>
       </c>
-      <c r="J31">
+      <c r="J31" t="n">
         <v>-0.03135498782685864</v>
       </c>
-      <c r="K31">
+      <c r="K31" t="n">
         <v>-0.03135498782685864</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="2">
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>41214</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>27.3799991607666</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>27.54000091552734</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>27.20999908447266</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>27.40999984741211</v>
       </c>
-      <c r="F32">
-        <v>22.00693511962891</v>
-      </c>
-      <c r="G32">
+      <c r="F32" t="n">
+        <v>22.00693702697754</v>
+      </c>
+      <c r="G32" t="n">
         <v>261400</v>
       </c>
-      <c r="H32">
+      <c r="H32" t="n">
         <v>0.05626200545464943</v>
       </c>
-      <c r="I32">
+      <c r="I32" t="n">
         <v>0.1071771263844076</v>
       </c>
-      <c r="J32">
+      <c r="J32" t="n">
         <v>0.112870514874958</v>
       </c>
-      <c r="K32">
+      <c r="K32" t="n">
         <v>0.112870514874958</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="2">
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>41244</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>29.10000038146973</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>29.70000076293945</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>29</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>29.6200008392334</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="n">
         <v>24.30229949951172</v>
       </c>
-      <c r="G33">
+      <c r="G33" t="n">
         <v>116600</v>
       </c>
-      <c r="H33">
+      <c r="H33" t="n">
         <v>0.08062754484217716</v>
       </c>
-      <c r="I33">
+      <c r="I33" t="n">
         <v>0.1061881664678555</v>
       </c>
-      <c r="J33">
+      <c r="J33" t="n">
         <v>0.3687616300674306</v>
       </c>
-      <c r="K33">
+      <c r="K33" t="n">
         <v>0.3687616300674306</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="2">
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>41275</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>28.28000068664551</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>28.45999908447266</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>28.22999954223633</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>28.44000053405762</v>
       </c>
-      <c r="F34">
-        <v>23.33414649963379</v>
-      </c>
-      <c r="G34">
+      <c r="F34" t="n">
+        <v>23.33415031433105</v>
+      </c>
+      <c r="G34" t="n">
         <v>188400</v>
       </c>
-      <c r="H34">
+      <c r="H34" t="n">
         <v>-0.03983795650717215</v>
       </c>
-      <c r="I34">
+      <c r="I34" t="n">
         <v>0.1048320625529959</v>
       </c>
-      <c r="J34">
+      <c r="J34" t="n">
         <v>0.1236665797771757</v>
       </c>
-      <c r="K34">
+      <c r="K34" t="n">
         <v>0.1236665797771757</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="2">
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>41306</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>27.11000061035156</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>27.20000076293945</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>26.93000030517578</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>26.93000030517578</v>
       </c>
-      <c r="F35">
-        <v>22.09523773193359</v>
-      </c>
-      <c r="G35">
+      <c r="F35" t="n">
+        <v>22.09523963928223</v>
+      </c>
+      <c r="G35" t="n">
         <v>110300</v>
       </c>
-      <c r="H35">
+      <c r="H35" t="n">
         <v>-0.05309424052484013</v>
       </c>
-      <c r="I35">
+      <c r="I35" t="n">
         <v>0.1037353830631852</v>
       </c>
-      <c r="J35">
+      <c r="J35" t="n">
         <v>0.02512370901832472</v>
       </c>
-      <c r="K35">
+      <c r="K35" t="n">
         <v>0.02512370901832472</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="2">
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>41334</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>25.53000068664551</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>25.78000068664551</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>25.53000068664551</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>25.70000076293945</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="n">
         <v>21.08606147766113</v>
       </c>
-      <c r="G36">
+      <c r="G36" t="n">
         <v>71900</v>
       </c>
-      <c r="H36">
+      <c r="H36" t="n">
         <v>-0.0456739520348215</v>
       </c>
-      <c r="I36">
+      <c r="I36" t="n">
         <v>0.1025436363151875</v>
       </c>
-      <c r="J36">
+      <c r="J36" t="n">
         <v>-0.00963391108477496</v>
       </c>
-      <c r="K36">
+      <c r="K36" t="n">
         <v>-0.00963391108477496</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="2">
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>41365</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>25.45999908447266</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>25.85000038146973</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>25.45999908447266</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>25.82999992370605</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="n">
         <v>21.19272041320801</v>
       </c>
-      <c r="G37">
+      <c r="G37" t="n">
         <v>112600</v>
       </c>
-      <c r="H37">
+      <c r="H37" t="n">
         <v>0.005058332953595368</v>
       </c>
-      <c r="I37">
+      <c r="I37" t="n">
         <v>0.1010243874774619</v>
       </c>
-      <c r="J37">
+      <c r="J37" t="n">
         <v>0.03319999694824216</v>
       </c>
-      <c r="K37">
+      <c r="K37" t="n">
         <v>0.03319999694824216</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="2">
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>41395</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>26.61000061035156</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>26.75</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>26.38999938964844</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>26.39999961853027</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="n">
         <v>21.66039085388184</v>
       </c>
-      <c r="G38">
+      <c r="G38" t="n">
         <v>283900</v>
       </c>
-      <c r="H38">
+      <c r="H38" t="n">
         <v>0.0220673517811778</v>
       </c>
-      <c r="I38">
+      <c r="I38" t="n">
         <v>0.09961121093871542</v>
       </c>
-      <c r="J38">
+      <c r="J38" t="n">
         <v>0.263157899540037</v>
       </c>
-      <c r="K38">
+      <c r="K38" t="n">
         <v>0.263157899540037</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="2">
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>41426</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>24.10000038146973</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>24.45000076293945</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>24</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>24.31999969482422</v>
       </c>
-      <c r="F39">
-        <v>20.14739990234375</v>
-      </c>
-      <c r="G39">
+      <c r="F39" t="n">
+        <v>20.14739418029785</v>
+      </c>
+      <c r="G39" t="n">
         <v>151300</v>
       </c>
-      <c r="H39">
+      <c r="H39" t="n">
         <v>-0.07878787703641077</v>
       </c>
-      <c r="I39">
+      <c r="I39" t="n">
         <v>0.09919068580801518</v>
       </c>
-      <c r="J39">
+      <c r="J39" t="n">
         <v>0.0218487594299559</v>
       </c>
-      <c r="K39">
+      <c r="K39" t="n">
         <v>0.0218487594299559</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="2">
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>41456</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>26.57999992370605</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>26.96999931335449</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>26.48999977111816</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>26.75</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="n">
         <v>22.16048049926758</v>
       </c>
-      <c r="G40">
+      <c r="G40" t="n">
         <v>218400</v>
       </c>
-      <c r="H40">
+      <c r="H40" t="n">
         <v>0.09991777696004389</v>
       </c>
-      <c r="I40">
+      <c r="I40" t="n">
         <v>0.09909048451567103</v>
       </c>
-      <c r="J40">
+      <c r="J40" t="n">
         <v>0.1520241512072442</v>
       </c>
-      <c r="K40">
+      <c r="K40" t="n">
         <v>0.1520241512072442</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="2">
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>41487</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>27.13999938964844</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>27.13999938964844</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>26.97999954223633</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="n">
         <v>27.09000015258789</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="n">
         <v>22.4421443939209</v>
       </c>
-      <c r="G41">
+      <c r="G41" t="n">
         <v>183000</v>
       </c>
-      <c r="H41">
+      <c r="H41" t="n">
         <v>0.01271028607805191</v>
       </c>
-      <c r="I41">
+      <c r="I41" t="n">
         <v>0.09778428818563928</v>
       </c>
-      <c r="J41">
+      <c r="J41" t="n">
         <v>0.1107011410621594</v>
       </c>
-      <c r="K41">
+      <c r="K41" t="n">
         <v>0.1107011410621594</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="2">
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>41518</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>28.72999954223633</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>28.75</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>28.52000045776367</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="n">
         <v>28.63999938964844</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="n">
         <v>23.7262134552002</v>
       </c>
-      <c r="G42">
+      <c r="G42" t="n">
         <v>171000</v>
       </c>
-      <c r="H42">
+      <c r="H42" t="n">
         <v>0.05721665663824216</v>
       </c>
-      <c r="I42">
+      <c r="I42" t="n">
         <v>0.09686232231232544</v>
       </c>
-      <c r="J42">
+      <c r="J42" t="n">
         <v>0.08690698197443369</v>
       </c>
-      <c r="K42">
+      <c r="K42" t="n">
         <v>0.08690698197443369</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="2">
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>41548</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>31.44000053405762</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>31.44000053405762</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>30.8700008392334</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="n">
         <v>30.8700008392334</v>
       </c>
-      <c r="F43">
-        <v>25.57361030578613</v>
-      </c>
-      <c r="G43">
+      <c r="F43" t="n">
+        <v>25.5736083984375</v>
+      </c>
+      <c r="G43" t="n">
         <v>142300</v>
       </c>
-      <c r="H43">
+      <c r="H43" t="n">
         <v>0.07786318076497478</v>
       </c>
-      <c r="I43">
+      <c r="I43" t="n">
         <v>0.09627794219804002</v>
       </c>
-      <c r="J43">
+      <c r="J43" t="n">
         <v>0.1895953730884068</v>
       </c>
-      <c r="K43">
+      <c r="K43" t="n">
         <v>0.1895953730884068</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="2">
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>41579</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>31.46999931335449</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>31.69000053405762</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>31.43000030517578</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="n">
         <v>31.53000068664551</v>
       </c>
-      <c r="F44">
-        <v>26.12037658691406</v>
-      </c>
-      <c r="G44">
+      <c r="F44" t="n">
+        <v>26.1203784942627</v>
+      </c>
+      <c r="G44" t="n">
         <v>186700</v>
       </c>
-      <c r="H44">
+      <c r="H44" t="n">
         <v>0.02137997503949851</v>
       </c>
-      <c r="I44">
+      <c r="I44" t="n">
         <v>0.09511590983135455</v>
       </c>
-      <c r="J44">
+      <c r="J44" t="n">
         <v>0.1503101372553413</v>
       </c>
-      <c r="K44">
+      <c r="K44" t="n">
         <v>0.1503101372553413</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="2">
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>41609</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>29.69000053405762</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>29.79999923706055</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>29.47999954223633</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>29.68000030517578</v>
       </c>
-      <c r="F45">
-        <v>25.20954513549805</v>
-      </c>
-      <c r="G45">
+      <c r="F45" t="n">
+        <v>25.20954322814941</v>
+      </c>
+      <c r="G45" t="n">
         <v>165900</v>
       </c>
-      <c r="H45">
+      <c r="H45" t="n">
         <v>-0.05867428928580054</v>
       </c>
-      <c r="I45">
+      <c r="I45" t="n">
         <v>0.09454584291927771</v>
       </c>
-      <c r="J45">
+      <c r="J45" t="n">
         <v>0.002025640251262617</v>
       </c>
-      <c r="K45">
+      <c r="K45" t="n">
         <v>0.002025640251262617</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="2">
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>41640</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>27.6299991607666</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>28.04999923706055</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>27.6299991607666</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="n">
         <v>27.93000030517578</v>
       </c>
-      <c r="F46">
-        <v>23.72313690185547</v>
-      </c>
-      <c r="G46">
+      <c r="F46" t="n">
+        <v>23.7231330871582</v>
+      </c>
+      <c r="G46" t="n">
         <v>132100</v>
       </c>
-      <c r="H46">
+      <c r="H46" t="n">
         <v>-0.05896226354468148</v>
       </c>
-      <c r="I46">
+      <c r="I46" t="n">
         <v>0.09397836144753705</v>
       </c>
-      <c r="J46">
+      <c r="J46" t="n">
         <v>-0.0179324971626178</v>
       </c>
-      <c r="K46">
+      <c r="K46" t="n">
         <v>-0.0179324971626178</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="2">
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>41671</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>30.72999954223633</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>30.96999931335449</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="n">
         <v>30.57999992370605</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="n">
         <v>30.82999992370605</v>
       </c>
-      <c r="F47">
-        <v>26.18633270263672</v>
-      </c>
-      <c r="G47">
+      <c r="F47" t="n">
+        <v>26.18633079528809</v>
+      </c>
+      <c r="G47" t="n">
         <v>359500</v>
       </c>
-      <c r="H47">
+      <c r="H47" t="n">
         <v>0.1038309912940769</v>
       </c>
-      <c r="I47">
+      <c r="I47" t="n">
         <v>0.0940384421354047</v>
       </c>
-      <c r="J47">
+      <c r="J47" t="n">
         <v>0.1448198876470386</v>
       </c>
-      <c r="K47">
+      <c r="K47" t="n">
         <v>0.1448198876470386</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="2">
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>41699</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>30.06999969482422</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>30.29999923706055</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="n">
         <v>30.04999923706055</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="n">
         <v>30.04999923706055</v>
       </c>
-      <c r="F48">
-        <v>25.52381324768066</v>
-      </c>
-      <c r="G48">
+      <c r="F48" t="n">
+        <v>25.5238151550293</v>
+      </c>
+      <c r="G48" t="n">
         <v>296700</v>
       </c>
-      <c r="H48">
+      <c r="H48" t="n">
         <v>-0.02530005477053998</v>
       </c>
-      <c r="I48">
+      <c r="I48" t="n">
         <v>0.09311975969355887</v>
       </c>
-      <c r="J48">
+      <c r="J48" t="n">
         <v>0.1692606359916529</v>
       </c>
-      <c r="K48">
+      <c r="K48" t="n">
         <v>0.1692606359916529</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="2">
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>41730</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>30.1200008392334</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>30.32999992370605</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="n">
         <v>30.06999969482422</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="n">
         <v>30.31999969482422</v>
       </c>
-      <c r="F49">
-        <v>25.75314712524414</v>
-      </c>
-      <c r="G49">
+      <c r="F49" t="n">
+        <v>25.75315093994141</v>
+      </c>
+      <c r="G49" t="n">
         <v>157700</v>
       </c>
-      <c r="H49">
+      <c r="H49" t="n">
         <v>0.008985040419923873</v>
       </c>
-      <c r="I49">
+      <c r="I49" t="n">
         <v>0.09210225076695908</v>
       </c>
-      <c r="J49">
+      <c r="J49" t="n">
         <v>0.1738288727983064</v>
       </c>
-      <c r="K49">
+      <c r="K49" t="n">
         <v>0.1738288727983064</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="2">
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>41760</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>30.20999908447266</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>30.20999908447266</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="n">
         <v>29.95999908447266</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="n">
         <v>30.01000022888184</v>
       </c>
-      <c r="F50">
-        <v>25.48983955383301</v>
-      </c>
-      <c r="G50">
+      <c r="F50" t="n">
+        <v>25.48984146118164</v>
+      </c>
+      <c r="G50" t="n">
         <v>606100</v>
       </c>
-      <c r="H50">
+      <c r="H50" t="n">
         <v>-0.01022425689520379</v>
       </c>
-      <c r="I50">
+      <c r="I50" t="n">
         <v>0.09115357582852662</v>
       </c>
-      <c r="J50">
+      <c r="J50" t="n">
         <v>0.1367424493376768</v>
       </c>
-      <c r="K50">
+      <c r="K50" t="n">
         <v>0.1367424493376768</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="2">
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>41791</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>29.29999923706055</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>29.43000030517578</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="n">
         <v>29.27000045776367</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="n">
         <v>29.35000038146973</v>
       </c>
-      <c r="F51">
+      <c r="F51" t="n">
         <v>25.13803672790527</v>
       </c>
-      <c r="G51">
+      <c r="G51" t="n">
         <v>215200</v>
       </c>
-      <c r="H51">
+      <c r="H51" t="n">
         <v>-0.02199266385799359</v>
       </c>
-      <c r="I51">
+      <c r="I51" t="n">
         <v>0.09029575331147235</v>
       </c>
-      <c r="J51">
+      <c r="J51" t="n">
         <v>0.2068256887238362</v>
       </c>
-      <c r="K51">
+      <c r="K51" t="n">
         <v>0.2068256887238362</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="2">
+    <row r="52">
+      <c r="A52" s="2" t="n">
         <v>41821</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>27.82999992370605</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>27.89999961853027</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="n">
         <v>27.52000045776367</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="n">
         <v>27.54999923706055</v>
       </c>
-      <c r="F52">
-        <v>23.59635162353516</v>
-      </c>
-      <c r="G52">
+      <c r="F52" t="n">
+        <v>23.59634971618652</v>
+      </c>
+      <c r="G52" t="n">
         <v>304900</v>
       </c>
-      <c r="H52">
+      <c r="H52" t="n">
         <v>-0.06132882865465372</v>
       </c>
-      <c r="I52">
+      <c r="I52" t="n">
         <v>0.08988526706591904</v>
       </c>
-      <c r="J52">
+      <c r="J52" t="n">
         <v>0.02990651353497364</v>
       </c>
-      <c r="K52">
+      <c r="K52" t="n">
         <v>0.02990651353497364</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="2">
+    <row r="53">
+      <c r="A53" s="2" t="n">
         <v>41852</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>28.05999946594238</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>28.14999961853027</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="n">
         <v>27.92000007629395</v>
       </c>
-      <c r="E53">
+      <c r="E53" t="n">
         <v>27.92000007629395</v>
       </c>
-      <c r="F53">
-        <v>23.91325378417969</v>
-      </c>
-      <c r="G53">
+      <c r="F53" t="n">
+        <v>23.91325187683105</v>
+      </c>
+      <c r="G53" t="n">
         <v>149600</v>
       </c>
-      <c r="H53">
+      <c r="H53" t="n">
         <v>0.01343015787585466</v>
       </c>
-      <c r="I53">
+      <c r="I53" t="n">
         <v>0.08898916772746021</v>
       </c>
-      <c r="J53">
+      <c r="J53" t="n">
         <v>0.03063860904507099</v>
       </c>
-      <c r="K53">
+      <c r="K53" t="n">
         <v>0.03063860904507099</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="2">
+    <row r="54">
+      <c r="A54" s="2" t="n">
         <v>41883</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>28.26000022888184</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>28.52000045776367</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="n">
         <v>28.21999931335449</v>
       </c>
-      <c r="E54">
+      <c r="E54" t="n">
         <v>28.39999961853027</v>
       </c>
-      <c r="F54">
-        <v>24.32436943054199</v>
-      </c>
-      <c r="G54">
+      <c r="F54" t="n">
+        <v>24.32436752319336</v>
+      </c>
+      <c r="G54" t="n">
         <v>173200</v>
       </c>
-      <c r="H54">
+      <c r="H54" t="n">
         <v>0.0171919606348383</v>
       </c>
-      <c r="I54">
+      <c r="I54" t="n">
         <v>0.08812744093412719</v>
       </c>
-      <c r="J54">
+      <c r="J54" t="n">
         <v>-0.008379880455057109</v>
       </c>
-      <c r="K54">
+      <c r="K54" t="n">
         <v>-0.008379880455057109</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="2">
+    <row r="55">
+      <c r="A55" s="2" t="n">
         <v>41913</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>27.42000007629395</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>27.55999946594238</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="n">
         <v>27.31999969482422</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="n">
         <v>27.46999931335449</v>
       </c>
-      <c r="F55">
-        <v>23.52783012390137</v>
-      </c>
-      <c r="G55">
+      <c r="F55" t="n">
+        <v>23.52783203125</v>
+      </c>
+      <c r="G55" t="n">
         <v>286500</v>
       </c>
-      <c r="H55">
+      <c r="H55" t="n">
         <v>-0.03274649005871744</v>
       </c>
-      <c r="I55">
+      <c r="I55" t="n">
         <v>0.0874354072039137</v>
       </c>
-      <c r="J55">
+      <c r="J55" t="n">
         <v>-0.1101393402476933</v>
       </c>
-      <c r="K55">
+      <c r="K55" t="n">
         <v>-0.1101393402476933</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="2">
+    <row r="56">
+      <c r="A56" s="2" t="n">
         <v>41944</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>27.13999938964844</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>27.26000022888184</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="n">
         <v>26.88999938964844</v>
       </c>
-      <c r="E56">
+      <c r="E56" t="n">
         <v>26.95000076293945</v>
       </c>
-      <c r="F56">
-        <v>23.08246040344238</v>
-      </c>
-      <c r="G56">
+      <c r="F56" t="n">
+        <v>23.08245086669922</v>
+      </c>
+      <c r="G56" t="n">
         <v>104600</v>
       </c>
-      <c r="H56">
+      <c r="H56" t="n">
         <v>-0.01892968923964411</v>
       </c>
-      <c r="I56">
+      <c r="I56" t="n">
         <v>0.08666758271583268</v>
       </c>
-      <c r="J56">
+      <c r="J56" t="n">
         <v>-0.1452584784004114</v>
       </c>
-      <c r="K56">
+      <c r="K56" t="n">
         <v>-0.1452584784004114</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="2">
+    <row r="57">
+      <c r="A57" s="2" t="n">
         <v>41974</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>24.21999931335449</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>24.29000091552734</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="n">
         <v>24.03000068664551</v>
       </c>
-      <c r="E57">
+      <c r="E57" t="n">
         <v>24.06999969482422</v>
       </c>
-      <c r="F57">
-        <v>21.09492492675781</v>
-      </c>
-      <c r="G57">
+      <c r="F57" t="n">
+        <v>21.09493255615234</v>
+      </c>
+      <c r="G57" t="n">
         <v>100800</v>
       </c>
-      <c r="H57">
+      <c r="H57" t="n">
         <v>-0.1068646006153623</v>
       </c>
-      <c r="I57">
+      <c r="I57" t="n">
         <v>0.08716486239885256</v>
       </c>
-      <c r="J57">
+      <c r="J57" t="n">
         <v>-0.1890161911276415</v>
       </c>
-      <c r="K57">
+      <c r="K57" t="n">
         <v>-0.1890161911276415</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="2">
+    <row r="58">
+      <c r="A58" s="2" t="n">
         <v>42005</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>23.23999977111816</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>23.47999954223633</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="n">
         <v>23.15999984741211</v>
       </c>
-      <c r="E58">
+      <c r="E58" t="n">
         <v>23.20000076293945</v>
       </c>
-      <c r="F58">
+      <c r="F58" t="n">
         <v>20.33246040344238</v>
       </c>
-      <c r="G58">
+      <c r="G58" t="n">
         <v>314700</v>
       </c>
-      <c r="H58">
+      <c r="H58" t="n">
         <v>-0.03614453439614462</v>
       </c>
-      <c r="I58">
+      <c r="I58" t="n">
         <v>0.08652296169485674</v>
       </c>
-      <c r="J58">
+      <c r="J58" t="n">
         <v>-0.1693519330667461</v>
       </c>
-      <c r="K58">
+      <c r="K58" t="n">
         <v>-0.1693519330667461</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="2">
+    <row r="59">
+      <c r="A59" s="2" t="n">
         <v>42036</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>23.64999961853027</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>23.76000022888184</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="n">
         <v>23.53000068664551</v>
       </c>
-      <c r="E59">
+      <c r="E59" t="n">
         <v>23.53000068664551</v>
       </c>
-      <c r="F59">
-        <v>20.62167167663574</v>
-      </c>
-      <c r="G59">
+      <c r="F59" t="n">
+        <v>20.62166976928711</v>
+      </c>
+      <c r="G59" t="n">
         <v>205900</v>
       </c>
-      <c r="H59">
+      <c r="H59" t="n">
         <v>0.01422413417473711</v>
       </c>
-      <c r="I59">
+      <c r="I59" t="n">
         <v>0.08576275211188593</v>
       </c>
-      <c r="J59">
+      <c r="J59" t="n">
         <v>-0.2367823306884724</v>
       </c>
-      <c r="K59">
+      <c r="K59" t="n">
         <v>-0.2367823306884724</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="2">
+    <row r="60">
+      <c r="A60" s="2" t="n">
         <v>42064</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>23.32999992370605</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>23.40999984741211</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="n">
         <v>23.23999977111816</v>
       </c>
-      <c r="E60">
+      <c r="E60" t="n">
         <v>23.3799991607666</v>
       </c>
-      <c r="F60">
-        <v>20.49020767211914</v>
-      </c>
-      <c r="G60">
+      <c r="F60" t="n">
+        <v>20.49020957946777</v>
+      </c>
+      <c r="G60" t="n">
         <v>165700</v>
       </c>
-      <c r="H60">
+      <c r="H60" t="n">
         <v>-0.006374905291186006</v>
       </c>
-      <c r="I60">
+      <c r="I60" t="n">
         <v>0.08501425678981418</v>
       </c>
-      <c r="J60">
+      <c r="J60" t="n">
         <v>-0.2219634025170909</v>
       </c>
-      <c r="K60">
+      <c r="K60" t="n">
         <v>-0.2219634025170909</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="2">
+    <row r="61">
+      <c r="A61" s="2" t="n">
         <v>42095</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>25.77000045776367</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>25.84000015258789</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="n">
         <v>25.6200008392334</v>
       </c>
-      <c r="E61">
+      <c r="E61" t="n">
         <v>25.67000007629395</v>
       </c>
-      <c r="F61">
+      <c r="F61" t="n">
         <v>22.49716377258301</v>
       </c>
-      <c r="G61">
+      <c r="G61" t="n">
         <v>487300</v>
       </c>
-      <c r="H61">
+      <c r="H61" t="n">
         <v>0.09794700589083583</v>
       </c>
-      <c r="I61">
+      <c r="I61" t="n">
         <v>0.08520132365451544</v>
       </c>
-      <c r="J61">
+      <c r="J61" t="n">
         <v>-0.1533641050571664</v>
       </c>
-      <c r="K61">
+      <c r="K61" t="n">
         <v>-0.1533641050571664</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="2">
+    <row r="62">
+      <c r="A62" s="2" t="n">
         <v>42125</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>24.20999908447266</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>24.34000015258789</v>
       </c>
-      <c r="D62">
+      <c r="D62" t="n">
         <v>24.11000061035156</v>
       </c>
-      <c r="E62">
+      <c r="E62" t="n">
         <v>24.20000076293945</v>
       </c>
-      <c r="F62">
+      <c r="F62" t="n">
         <v>21.20885848999023</v>
       </c>
-      <c r="G62">
+      <c r="G62" t="n">
         <v>221900</v>
       </c>
-      <c r="H62">
+      <c r="H62" t="n">
         <v>-0.05726526330290216</v>
       </c>
-      <c r="I62">
+      <c r="I62" t="n">
         <v>0.0848396443134433</v>
       </c>
-      <c r="J62">
+      <c r="J62" t="n">
         <v>-0.1936021133498959</v>
       </c>
-      <c r="K62">
+      <c r="K62" t="n">
         <v>-0.1936021133498959</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="2">
+    <row r="63">
+      <c r="A63" s="2" t="n">
         <v>42156</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>23.07999992370605</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="n">
         <v>23.07999992370605</v>
       </c>
-      <c r="D63">
+      <c r="D63" t="n">
         <v>22.77000045776367</v>
       </c>
-      <c r="E63">
+      <c r="E63" t="n">
         <v>22.84000015258789</v>
       </c>
-      <c r="F63">
+      <c r="F63" t="n">
         <v>20.19494438171387</v>
       </c>
-      <c r="G63">
+      <c r="G63" t="n">
         <v>197600</v>
       </c>
-      <c r="H63">
+      <c r="H63" t="n">
         <v>-0.05619837055684329</v>
       </c>
-      <c r="I63">
+      <c r="I63" t="n">
         <v>0.08446454573494372</v>
       </c>
-      <c r="J63">
+      <c r="J63" t="n">
         <v>-0.2218057970790337</v>
       </c>
-      <c r="K63">
+      <c r="K63" t="n">
         <v>-0.2218057970790337</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="2">
+    <row r="64">
+      <c r="A64" s="2" t="n">
         <v>42186</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>22.39999961853027</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>22.55999946594238</v>
       </c>
-      <c r="D64">
+      <c r="D64" t="n">
         <v>22.31999969482422</v>
       </c>
-      <c r="E64">
+      <c r="E64" t="n">
         <v>22.39999961853027</v>
       </c>
-      <c r="F64">
-        <v>19.80590057373047</v>
-      </c>
-      <c r="G64">
+      <c r="F64" t="n">
+        <v>19.80589485168457</v>
+      </c>
+      <c r="G64" t="n">
         <v>264300</v>
       </c>
-      <c r="H64">
+      <c r="H64" t="n">
         <v>-0.01926447159010913</v>
       </c>
-      <c r="I64">
+      <c r="I64" t="n">
         <v>0.08381094700212496</v>
       </c>
-      <c r="J64">
+      <c r="J64" t="n">
         <v>-0.1869328406950531</v>
       </c>
-      <c r="K64">
+      <c r="K64" t="n">
         <v>-0.1869328406950531</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="2">
+    <row r="65">
+      <c r="A65" s="2" t="n">
         <v>42217</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>21.45999908447266</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="n">
         <v>21.78000068664551</v>
       </c>
-      <c r="D65">
+      <c r="D65" t="n">
         <v>21.40999984741211</v>
       </c>
-      <c r="E65">
+      <c r="E65" t="n">
         <v>21.70999908447266</v>
       </c>
-      <c r="F65">
+      <c r="F65" t="n">
         <v>19.1958065032959</v>
       </c>
-      <c r="G65">
+      <c r="G65" t="n">
         <v>129600</v>
       </c>
-      <c r="H65">
+      <c r="H65" t="n">
         <v>-0.03080359579501146</v>
       </c>
-      <c r="I65">
+      <c r="I65" t="n">
         <v>0.08322996074563542</v>
       </c>
-      <c r="J65">
+      <c r="J65" t="n">
         <v>-0.2224212383542943</v>
       </c>
-      <c r="K65">
+      <c r="K65" t="n">
         <v>-0.2224212383542943</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="2">
+    <row r="66">
+      <c r="A66" s="2" t="n">
         <v>42248</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="n">
         <v>20.73999977111816</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="n">
         <v>20.85000038146973</v>
       </c>
-      <c r="D66">
+      <c r="D66" t="n">
         <v>20.63999938964844</v>
       </c>
-      <c r="E66">
+      <c r="E66" t="n">
         <v>20.84000015258789</v>
       </c>
-      <c r="F66">
-        <v>18.42656135559082</v>
-      </c>
-      <c r="G66">
+      <c r="F66" t="n">
+        <v>18.42656326293945</v>
+      </c>
+      <c r="G66" t="n">
         <v>177200</v>
       </c>
-      <c r="H66">
+      <c r="H66" t="n">
         <v>-0.04007365124704232</v>
       </c>
-      <c r="I66">
+      <c r="I66" t="n">
         <v>0.08272377308098236</v>
       </c>
-      <c r="J66">
+      <c r="J66" t="n">
         <v>-0.2661971678693149</v>
       </c>
-      <c r="K66">
+      <c r="K66" t="n">
         <v>-0.2661971678693149</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="2">
+    <row r="67">
+      <c r="A67" s="2" t="n">
         <v>42278</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>20.38999938964844</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="n">
         <v>20.61000061035156</v>
       </c>
-      <c r="D67">
+      <c r="D67" t="n">
         <v>20.3799991607666</v>
       </c>
-      <c r="E67">
+      <c r="E67" t="n">
         <v>20.43000030517578</v>
       </c>
-      <c r="F67">
+      <c r="F67" t="n">
         <v>18.06404113769531</v>
       </c>
-      <c r="G67">
+      <c r="G67" t="n">
         <v>296800</v>
       </c>
-      <c r="H67">
+      <c r="H67" t="n">
         <v>-0.01967369694866317</v>
       </c>
-      <c r="I67">
+      <c r="I67" t="n">
         <v>0.08211138024876065</v>
       </c>
-      <c r="J67">
+      <c r="J67" t="n">
         <v>-0.2562795480215475</v>
       </c>
-      <c r="K67">
+      <c r="K67" t="n">
         <v>-0.2562795480215475</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="2">
+    <row r="68">
+      <c r="A68" s="2" t="n">
         <v>42309</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="n">
         <v>18.6200008392334</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="n">
         <v>18.65999984741211</v>
       </c>
-      <c r="D68">
+      <c r="D68" t="n">
         <v>18.47999954223633</v>
       </c>
-      <c r="E68">
+      <c r="E68" t="n">
         <v>18.57999992370605</v>
       </c>
-      <c r="F68">
+      <c r="F68" t="n">
         <v>16.42828559875488</v>
       </c>
-      <c r="G68">
+      <c r="G68" t="n">
         <v>232500</v>
       </c>
-      <c r="H68">
+      <c r="H68" t="n">
         <v>-0.09055312549364203</v>
       </c>
-      <c r="I68">
+      <c r="I68" t="n">
         <v>0.0822318783120114</v>
       </c>
-      <c r="J68">
+      <c r="J68" t="n">
         <v>-0.3105751614947442</v>
       </c>
-      <c r="K68">
+      <c r="K68" t="n">
         <v>-0.3105751614947442</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="2">
+    <row r="69">
+      <c r="A69" s="2" t="n">
         <v>42339</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>18.11000061035156</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="n">
         <v>18.13999938964844</v>
       </c>
-      <c r="D69">
+      <c r="D69" t="n">
         <v>17.94000053405762</v>
       </c>
-      <c r="E69">
+      <c r="E69" t="n">
         <v>18.07999992370605</v>
       </c>
-      <c r="F69">
+      <c r="F69" t="n">
         <v>16.2089672088623</v>
       </c>
-      <c r="G69">
+      <c r="G69" t="n">
         <v>218700</v>
       </c>
-      <c r="H69">
+      <c r="H69" t="n">
         <v>-0.02691065673052317</v>
       </c>
-      <c r="I69">
+      <c r="I69" t="n">
         <v>0.08166496867201821</v>
       </c>
-      <c r="J69">
+      <c r="J69" t="n">
         <v>-0.2488574926075382</v>
       </c>
-      <c r="K69">
+      <c r="K69" t="n">
         <v>-0.2488574926075382</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="2">
+    <row r="70">
+      <c r="A70" s="2" t="n">
         <v>42370</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="n">
         <v>16.6200008392334</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="n">
         <v>16.8799991607666</v>
       </c>
-      <c r="D70">
+      <c r="D70" t="n">
         <v>16.6200008392334</v>
       </c>
-      <c r="E70">
+      <c r="E70" t="n">
         <v>16.8700008392334</v>
       </c>
-      <c r="F70">
-        <v>15.12418365478516</v>
-      </c>
-      <c r="G70">
+      <c r="F70" t="n">
+        <v>15.12418460845947</v>
+      </c>
+      <c r="G70" t="n">
         <v>388500</v>
       </c>
-      <c r="H70">
+      <c r="H70" t="n">
         <v>-0.06692472840589647</v>
       </c>
-      <c r="I70">
+      <c r="I70" t="n">
         <v>0.08143467992206133</v>
       </c>
-      <c r="J70">
+      <c r="J70" t="n">
         <v>-0.2728448153250854</v>
       </c>
-      <c r="K70">
+      <c r="K70" t="n">
         <v>-0.2728448153250854</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="2">
+    <row r="71">
+      <c r="A71" s="2" t="n">
         <v>42401</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="n">
         <v>17.47999954223633</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="n">
         <v>17.55999946594238</v>
       </c>
-      <c r="D71">
+      <c r="D71" t="n">
         <v>17.3700008392334</v>
       </c>
-      <c r="E71">
+      <c r="E71" t="n">
         <v>17.42000007629395</v>
       </c>
-      <c r="F71">
+      <c r="F71" t="n">
         <v>15.61726570129395</v>
       </c>
-      <c r="G71">
+      <c r="G71" t="n">
         <v>182600</v>
       </c>
-      <c r="H71">
+      <c r="H71" t="n">
         <v>0.03260220567277328</v>
       </c>
-      <c r="I71">
+      <c r="I71" t="n">
         <v>0.08094696585909089</v>
       </c>
-      <c r="J71">
+      <c r="J71" t="n">
         <v>-0.2596685266490155</v>
       </c>
-      <c r="K71">
+      <c r="K71" t="n">
         <v>-0.2596685266490155</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="2">
+    <row r="72">
+      <c r="A72" s="2" t="n">
         <v>42430</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="n">
         <v>20.20999908447266</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="n">
         <v>20.35000038146973</v>
       </c>
-      <c r="D72">
+      <c r="D72" t="n">
         <v>20.18000030517578</v>
       </c>
-      <c r="E72">
+      <c r="E72" t="n">
         <v>20.22999954223633</v>
       </c>
-      <c r="F72">
-        <v>18.13647079467773</v>
-      </c>
-      <c r="G72">
+      <c r="F72" t="n">
+        <v>18.13646697998047</v>
+      </c>
+      <c r="G72" t="n">
         <v>303600</v>
       </c>
-      <c r="H72">
+      <c r="H72" t="n">
         <v>0.1613088090491102</v>
       </c>
-      <c r="I72">
+      <c r="I72" t="n">
         <v>0.08270743327576233</v>
       </c>
-      <c r="J72">
+      <c r="J72" t="n">
         <v>-0.1347305274422854</v>
       </c>
-      <c r="K72">
+      <c r="K72" t="n">
         <v>-0.1347305274422854</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="2">
+    <row r="73">
+      <c r="A73" s="2" t="n">
         <v>42461</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="n">
         <v>18.81999969482422</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="n">
         <v>18.96999931335449</v>
       </c>
-      <c r="D73">
+      <c r="D73" t="n">
         <v>18.76000022888184</v>
       </c>
-      <c r="E73">
+      <c r="E73" t="n">
         <v>18.94000053405762</v>
       </c>
-      <c r="F73">
-        <v>16.97996520996094</v>
-      </c>
-      <c r="G73">
+      <c r="F73" t="n">
+        <v>16.97996711730957</v>
+      </c>
+      <c r="G73" t="n">
         <v>246100</v>
       </c>
-      <c r="H73">
+      <c r="H73" t="n">
         <v>-0.06376663555950368</v>
       </c>
-      <c r="I73">
+      <c r="I73" t="n">
         <v>0.08246138680306019</v>
       </c>
-      <c r="J73">
+      <c r="J73" t="n">
         <v>-0.262173725057813</v>
       </c>
-      <c r="K73">
+      <c r="K73" t="n">
         <v>-0.262173725057813</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="2">
+    <row r="74">
+      <c r="A74" s="2" t="n">
         <v>42491</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="n">
         <v>17.6200008392334</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="n">
         <v>17.63999938964844</v>
       </c>
-      <c r="D74">
+      <c r="D74" t="n">
         <v>17.3700008392334</v>
       </c>
-      <c r="E74">
+      <c r="E74" t="n">
         <v>17.39999961853027</v>
       </c>
-      <c r="F74">
-        <v>15.59933471679688</v>
-      </c>
-      <c r="G74">
+      <c r="F74" t="n">
+        <v>15.59933280944824</v>
+      </c>
+      <c r="G74" t="n">
         <v>472700</v>
       </c>
-      <c r="H74">
+      <c r="H74" t="n">
         <v>-0.08130944414484775</v>
       </c>
-      <c r="I74">
+      <c r="I74" t="n">
         <v>0.08242379806998168</v>
       </c>
-      <c r="J74">
+      <c r="J74" t="n">
         <v>-0.2809917739681599</v>
       </c>
-      <c r="K74">
+      <c r="K74" t="n">
         <v>-0.2809917739681599</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="2">
+    <row r="75">
+      <c r="A75" s="2" t="n">
         <v>42522</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="n">
         <v>16.70999908447266</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="n">
         <v>17.03000068664551</v>
       </c>
-      <c r="D75">
+      <c r="D75" t="n">
         <v>16.70000076293945</v>
       </c>
-      <c r="E75">
+      <c r="E75" t="n">
         <v>16.95999908447266</v>
       </c>
-      <c r="F75">
-        <v>15.2420654296875</v>
-      </c>
-      <c r="G75">
+      <c r="F75" t="n">
+        <v>15.24206447601318</v>
+      </c>
+      <c r="G75" t="n">
         <v>717300</v>
       </c>
-      <c r="H75">
+      <c r="H75" t="n">
         <v>-0.0252873875691948</v>
       </c>
-      <c r="I75">
+      <c r="I75" t="n">
         <v>0.08189432440649057</v>
       </c>
-      <c r="J75">
+      <c r="J75" t="n">
         <v>-0.257443127356941</v>
       </c>
-      <c r="K75">
+      <c r="K75" t="n">
         <v>-0.257443127356941</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="2">
+    <row r="76">
+      <c r="A76" s="2" t="n">
         <v>42552</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="n">
         <v>17.55999946594238</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="n">
         <v>17.59000015258789</v>
       </c>
-      <c r="D76">
+      <c r="D76" t="n">
         <v>17.45999908447266</v>
       </c>
-      <c r="E76">
+      <c r="E76" t="n">
         <v>17.56999969482422</v>
       </c>
-      <c r="F76">
-        <v>15.79027557373047</v>
-      </c>
-      <c r="G76">
+      <c r="F76" t="n">
+        <v>15.7902774810791</v>
+      </c>
+      <c r="G76" t="n">
         <v>249100</v>
       </c>
-      <c r="H76">
+      <c r="H76" t="n">
         <v>0.03596701906134148</v>
       </c>
-      <c r="I76">
+      <c r="I76" t="n">
         <v>0.08145388638506992</v>
       </c>
-      <c r="J76">
+      <c r="J76" t="n">
         <v>-0.2156250002660922</v>
       </c>
-      <c r="K76">
+      <c r="K76" t="n">
         <v>-0.2156250002660922</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="2">
+    <row r="77">
+      <c r="A77" s="2" t="n">
         <v>42583</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="n">
         <v>18.05999946594238</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="n">
         <v>18.1200008392334</v>
       </c>
-      <c r="D77">
+      <c r="D77" t="n">
         <v>17.93000030517578</v>
       </c>
-      <c r="E77">
+      <c r="E77" t="n">
         <v>17.98999977111816</v>
       </c>
-      <c r="F77">
-        <v>16.16773414611816</v>
-      </c>
-      <c r="G77">
+      <c r="F77" t="n">
+        <v>16.16773223876953</v>
+      </c>
+      <c r="G77" t="n">
         <v>225200</v>
       </c>
-      <c r="H77">
+      <c r="H77" t="n">
         <v>0.02390438722760302</v>
       </c>
-      <c r="I77">
+      <c r="I77" t="n">
         <v>0.08095656628928163</v>
       </c>
-      <c r="J77">
+      <c r="J77" t="n">
         <v>-0.1713495840732253</v>
       </c>
-      <c r="K77">
+      <c r="K77" t="n">
         <v>-0.1713495840732253</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="2">
+    <row r="78">
+      <c r="A78" s="2" t="n">
         <v>42614</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="n">
         <v>18.13999938964844</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="n">
         <v>18.28000068664551</v>
       </c>
-      <c r="D78">
+      <c r="D78" t="n">
         <v>18.11000061035156</v>
       </c>
-      <c r="E78">
+      <c r="E78" t="n">
         <v>18.21999931335449</v>
       </c>
-      <c r="F78">
-        <v>16.37443542480469</v>
-      </c>
-      <c r="G78">
+      <c r="F78" t="n">
+        <v>16.37443733215332</v>
+      </c>
+      <c r="G78" t="n">
         <v>625100</v>
       </c>
-      <c r="H78">
+      <c r="H78" t="n">
         <v>0.01278485520636741</v>
       </c>
-      <c r="I78">
+      <c r="I78" t="n">
         <v>0.08043190332284925</v>
       </c>
-      <c r="J78">
+      <c r="J78" t="n">
         <v>-0.1257198090235162</v>
       </c>
-      <c r="K78">
+      <c r="K78" t="n">
         <v>-0.1257198090235162</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="2">
+    <row r="79">
+      <c r="A79" s="2" t="n">
         <v>42644</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="n">
         <v>18.43000030517578</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="n">
         <v>18.65999984741211</v>
       </c>
-      <c r="D79">
+      <c r="D79" t="n">
         <v>18.43000030517578</v>
       </c>
-      <c r="E79">
+      <c r="E79" t="n">
         <v>18.59000015258789</v>
       </c>
-      <c r="F79">
-        <v>16.70695877075195</v>
-      </c>
-      <c r="G79">
+      <c r="F79" t="n">
+        <v>16.70695686340332</v>
+      </c>
+      <c r="G79" t="n">
         <v>237500</v>
       </c>
-      <c r="H79">
+      <c r="H79" t="n">
         <v>0.02030740138185427</v>
       </c>
-      <c r="I79">
+      <c r="I79" t="n">
         <v>0.0799392161023751</v>
       </c>
-      <c r="J79">
+      <c r="J79" t="n">
         <v>-0.09006363803732986</v>
       </c>
-      <c r="K79">
+      <c r="K79" t="n">
         <v>-0.09006363803732986</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="2">
+    <row r="80">
+      <c r="A80" s="2" t="n">
         <v>42675</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="n">
         <v>17.28000068664551</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="n">
         <v>17.29000091552734</v>
       </c>
-      <c r="D80">
+      <c r="D80" t="n">
         <v>17.1200008392334</v>
       </c>
-      <c r="E80">
+      <c r="E80" t="n">
         <v>17.13999938964844</v>
       </c>
-      <c r="F80">
-        <v>15.40383148193359</v>
-      </c>
-      <c r="G80">
+      <c r="F80" t="n">
+        <v>15.40382957458496</v>
+      </c>
+      <c r="G80" t="n">
         <v>208600</v>
       </c>
-      <c r="H80">
+      <c r="H80" t="n">
         <v>-0.0779989645528647</v>
       </c>
-      <c r="I80">
+      <c r="I80" t="n">
         <v>0.07989430891623635</v>
       </c>
-      <c r="J80">
+      <c r="J80" t="n">
         <v>-0.07750272012758908</v>
       </c>
-      <c r="K80">
+      <c r="K80" t="n">
         <v>-0.07750272012758908</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="2">
+    <row r="81">
+      <c r="A81" s="2" t="n">
         <v>42705</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="n">
         <v>18.22999954223633</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="n">
         <v>18.25</v>
       </c>
-      <c r="D81">
+      <c r="D81" t="n">
         <v>18.10000038146973</v>
       </c>
-      <c r="E81">
+      <c r="E81" t="n">
         <v>18.1200008392334</v>
       </c>
-      <c r="F81">
-        <v>16.5999755859375</v>
-      </c>
-      <c r="G81">
+      <c r="F81" t="n">
+        <v>16.59997177124023</v>
+      </c>
+      <c r="G81" t="n">
         <v>197300</v>
       </c>
-      <c r="H81">
+      <c r="H81" t="n">
         <v>0.05717628264192509</v>
       </c>
-      <c r="I81">
+      <c r="I81" t="n">
         <v>0.0796600408951214</v>
       </c>
-      <c r="J81">
+      <c r="J81" t="n">
         <v>0.002212440027441254</v>
       </c>
-      <c r="K81">
+      <c r="K81" t="n">
         <v>0.002212440027441254</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="2">
+    <row r="82">
+      <c r="A82" s="2" t="n">
         <v>42736</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="n">
         <v>20.13999938964844</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="n">
         <v>20.20999908447266</v>
       </c>
-      <c r="D82">
+      <c r="D82" t="n">
         <v>20.09000015258789</v>
       </c>
-      <c r="E82">
+      <c r="E82" t="n">
         <v>20.19000053405762</v>
       </c>
-      <c r="F82">
-        <v>18.49633026123047</v>
-      </c>
-      <c r="G82">
+      <c r="F82" t="n">
+        <v>18.49632835388184</v>
+      </c>
+      <c r="G82" t="n">
         <v>306000</v>
       </c>
-      <c r="H82">
+      <c r="H82" t="n">
         <v>0.1142383884631097</v>
       </c>
-      <c r="I82">
+      <c r="I82" t="n">
         <v>0.08020202285589631</v>
       </c>
-      <c r="J82">
+      <c r="J82" t="n">
         <v>0.1967990236908064</v>
       </c>
-      <c r="K82">
+      <c r="K82" t="n">
         <v>0.1967990236908064</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="2">
+    <row r="83">
+      <c r="A83" s="2" t="n">
         <v>42767</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="n">
         <v>21.06999969482422</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="n">
         <v>21.13999938964844</v>
       </c>
-      <c r="D83">
+      <c r="D83" t="n">
         <v>21</v>
       </c>
-      <c r="E83">
+      <c r="E83" t="n">
         <v>21.01000022888184</v>
       </c>
-      <c r="F83">
-        <v>19.24753952026367</v>
-      </c>
-      <c r="G83">
+      <c r="F83" t="n">
+        <v>19.2475414276123</v>
+      </c>
+      <c r="G83" t="n">
         <v>295500</v>
       </c>
-      <c r="H83">
+      <c r="H83" t="n">
         <v>0.04061414923892626</v>
       </c>
-      <c r="I83">
+      <c r="I83" t="n">
         <v>0.07982615718224542</v>
       </c>
-      <c r="J83">
+      <c r="J83" t="n">
         <v>0.2060849676730687</v>
       </c>
-      <c r="K83">
+      <c r="K83" t="n">
         <v>0.2060849676730687</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="2">
+    <row r="84">
+      <c r="A84" s="2" t="n">
         <v>42795</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="n">
         <v>21.70999908447266</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="n">
         <v>21.70999908447266</v>
       </c>
-      <c r="D84">
+      <c r="D84" t="n">
         <v>21.54999923706055</v>
       </c>
-      <c r="E84">
+      <c r="E84" t="n">
         <v>21.57999992370605</v>
       </c>
-      <c r="F84">
+      <c r="F84" t="n">
         <v>19.76972770690918</v>
       </c>
-      <c r="G84">
+      <c r="G84" t="n">
         <v>459600</v>
       </c>
-      <c r="H84">
+      <c r="H84" t="n">
         <v>0.0271299233038873</v>
       </c>
-      <c r="I84">
+      <c r="I84" t="n">
         <v>0.07938591659099715</v>
       </c>
-      <c r="J84">
+      <c r="J84" t="n">
         <v>0.06673259574975199</v>
       </c>
-      <c r="K84">
+      <c r="K84" t="n">
         <v>0.06673259574975199</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="2">
+    <row r="85">
+      <c r="A85" s="2" t="n">
         <v>42826</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="n">
         <v>23.72999954223633</v>
       </c>
-      <c r="C85">
+      <c r="C85" t="n">
         <v>23.78000068664551</v>
       </c>
-      <c r="D85">
+      <c r="D85" t="n">
         <v>23.67000007629395</v>
       </c>
-      <c r="E85">
+      <c r="E85" t="n">
         <v>23.76000022888184</v>
       </c>
-      <c r="F85">
-        <v>21.76685333251953</v>
-      </c>
-      <c r="G85">
+      <c r="F85" t="n">
+        <v>21.76684951782227</v>
+      </c>
+      <c r="G85" t="n">
         <v>313200</v>
       </c>
-      <c r="H85">
+      <c r="H85" t="n">
         <v>0.1010194769639925</v>
       </c>
-      <c r="I85">
+      <c r="I85" t="n">
         <v>0.07966153987843516</v>
       </c>
-      <c r="J85">
+      <c r="J85" t="n">
         <v>0.25448783309995</v>
       </c>
-      <c r="K85">
+      <c r="K85" t="n">
         <v>0.25448783309995</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="2">
+    <row r="86">
+      <c r="A86" s="2" t="n">
         <v>42856</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="n">
         <v>24.05999946594238</v>
       </c>
-      <c r="C86">
+      <c r="C86" t="n">
         <v>24.06999969482422</v>
       </c>
-      <c r="D86">
+      <c r="D86" t="n">
         <v>23.80999946594238</v>
       </c>
-      <c r="E86">
+      <c r="E86" t="n">
         <v>23.85000038146973</v>
       </c>
-      <c r="F86">
-        <v>21.84930419921875</v>
-      </c>
-      <c r="G86">
+      <c r="F86" t="n">
+        <v>21.84930610656738</v>
+      </c>
+      <c r="G86" t="n">
         <v>356600</v>
       </c>
-      <c r="H86">
+      <c r="H86" t="n">
         <v>0.003787885173438976</v>
       </c>
-      <c r="I86">
+      <c r="I86" t="n">
         <v>0.07918040148267219</v>
       </c>
-      <c r="J86">
+      <c r="J86" t="n">
         <v>0.3706897071463422</v>
       </c>
-      <c r="K86">
+      <c r="K86" t="n">
         <v>0.3706897071463422</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="2">
+    <row r="87">
+      <c r="A87" s="2" t="n">
         <v>42887</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="n">
         <v>24.42000007629395</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="n">
         <v>24.45000076293945</v>
       </c>
-      <c r="D87">
+      <c r="D87" t="n">
         <v>24.23999977111816</v>
       </c>
-      <c r="E87">
+      <c r="E87" t="n">
         <v>24.28000068664551</v>
       </c>
-      <c r="F87">
+      <c r="F87" t="n">
         <v>22.31675338745117</v>
       </c>
-      <c r="G87">
+      <c r="G87" t="n">
         <v>315700</v>
       </c>
-      <c r="H87">
+      <c r="H87" t="n">
         <v>0.01802936261208066</v>
       </c>
-      <c r="I87">
+      <c r="I87" t="n">
         <v>0.07872650308896284</v>
       </c>
-      <c r="J87">
+      <c r="J87" t="n">
         <v>0.4316038913512981</v>
       </c>
-      <c r="K87">
+      <c r="K87" t="n">
         <v>0.4316038913512981</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="2">
+    <row r="88">
+      <c r="A88" s="2" t="n">
         <v>42917</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="n">
         <v>25.65999984741211</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="n">
         <v>25.84000015258789</v>
       </c>
-      <c r="D88">
+      <c r="D88" t="n">
         <v>25.60000038146973</v>
       </c>
-      <c r="E88">
+      <c r="E88" t="n">
         <v>25.82999992370605</v>
       </c>
-      <c r="F88">
-        <v>23.74142074584961</v>
-      </c>
-      <c r="G88">
+      <c r="F88" t="n">
+        <v>23.74142265319824</v>
+      </c>
+      <c r="G88" t="n">
         <v>334400</v>
       </c>
-      <c r="H88">
+      <c r="H88" t="n">
         <v>0.06383851701919752</v>
       </c>
-      <c r="I88">
+      <c r="I88" t="n">
         <v>0.0785424564233637</v>
       </c>
-      <c r="J88">
+      <c r="J88" t="n">
         <v>0.4701195431047771</v>
       </c>
-      <c r="K88">
+      <c r="K88" t="n">
         <v>0.4701195431047771</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="2">
+    <row r="89">
+      <c r="A89" s="2" t="n">
         <v>42948</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="n">
         <v>27.22999954223633</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="n">
         <v>27.39999961853027</v>
       </c>
-      <c r="D89">
+      <c r="D89" t="n">
         <v>27.1299991607666</v>
       </c>
-      <c r="E89">
+      <c r="E89" t="n">
         <v>27.3700008392334</v>
       </c>
-      <c r="F89">
-        <v>25.15690040588379</v>
-      </c>
-      <c r="G89">
+      <c r="F89" t="n">
+        <v>25.15689849853516</v>
+      </c>
+      <c r="G89" t="n">
         <v>285500</v>
       </c>
-      <c r="H89">
+      <c r="H89" t="n">
         <v>0.05962063182640476</v>
       </c>
-      <c r="I89">
+      <c r="I89" t="n">
         <v>0.07831958802798343</v>
       </c>
-      <c r="J89">
+      <c r="J89" t="n">
         <v>0.5214008442164768</v>
       </c>
-      <c r="K89">
+      <c r="K89" t="n">
         <v>0.5214008442164768</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="2">
+    <row r="90">
+      <c r="A90" s="2" t="n">
         <v>42979</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="n">
         <v>26.60000038146973</v>
       </c>
-      <c r="C90">
+      <c r="C90" t="n">
         <v>26.64999961853027</v>
       </c>
-      <c r="D90">
+      <c r="D90" t="n">
         <v>26.46999931335449</v>
       </c>
-      <c r="E90">
+      <c r="E90" t="n">
         <v>26.52000045776367</v>
       </c>
-      <c r="F90">
-        <v>24.37562942504883</v>
-      </c>
-      <c r="G90">
+      <c r="F90" t="n">
+        <v>24.3756275177002</v>
+      </c>
+      <c r="G90" t="n">
         <v>324600</v>
       </c>
-      <c r="H90">
+      <c r="H90" t="n">
         <v>-0.03105591360637805</v>
       </c>
-      <c r="I90">
+      <c r="I90" t="n">
         <v>0.07795631574224292</v>
       </c>
-      <c r="J90">
+      <c r="J90" t="n">
         <v>0.4555434389245903</v>
       </c>
-      <c r="K90">
+      <c r="K90" t="n">
         <v>0.4555434389245903</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="2">
+    <row r="91">
+      <c r="A91" s="2" t="n">
         <v>43009</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="n">
         <v>26.94000053405762</v>
       </c>
-      <c r="C91">
+      <c r="C91" t="n">
         <v>27.05999946594238</v>
       </c>
-      <c r="D91">
+      <c r="D91" t="n">
         <v>26.8799991607666</v>
       </c>
-      <c r="E91">
+      <c r="E91" t="n">
         <v>27.05999946594238</v>
       </c>
-      <c r="F91">
+      <c r="F91" t="n">
         <v>24.8719654083252</v>
       </c>
-      <c r="G91">
+      <c r="G91" t="n">
         <v>357400</v>
       </c>
-      <c r="H91">
+      <c r="H91" t="n">
         <v>0.0203619531997643</v>
       </c>
-      <c r="I91">
+      <c r="I91" t="n">
         <v>0.07753317708113576</v>
       </c>
-      <c r="J91">
+      <c r="J91" t="n">
         <v>0.4556212610990966</v>
       </c>
-      <c r="K91">
+      <c r="K91" t="n">
         <v>0.4556212610990966</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="2">
+    <row r="92">
+      <c r="A92" s="2" t="n">
         <v>43040</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="n">
         <v>26.88999938964844</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="n">
         <v>26.98999977111816</v>
       </c>
-      <c r="D92">
+      <c r="D92" t="n">
         <v>26.69000053405762</v>
       </c>
-      <c r="E92">
+      <c r="E92" t="n">
         <v>26.71999931335449</v>
       </c>
-      <c r="F92">
+      <c r="F92" t="n">
         <v>24.55945587158203</v>
       </c>
-      <c r="G92">
+      <c r="G92" t="n">
         <v>545500</v>
       </c>
-      <c r="H92">
+      <c r="H92" t="n">
         <v>-0.01256467698810615</v>
       </c>
-      <c r="I92">
+      <c r="I92" t="n">
         <v>0.07711497558863968</v>
       </c>
-      <c r="J92">
+      <c r="J92" t="n">
         <v>0.5589265031999837</v>
       </c>
-      <c r="K92">
+      <c r="K92" t="n">
         <v>0.5589265031999837</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="2">
+    <row r="93">
+      <c r="A93" s="2" t="n">
         <v>43070</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="n">
         <v>27.18000030517578</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="n">
         <v>27.25</v>
       </c>
-      <c r="D93">
+      <c r="D93" t="n">
         <v>27.04000091552734</v>
       </c>
-      <c r="E93">
+      <c r="E93" t="n">
         <v>27.09000015258789</v>
       </c>
-      <c r="F93">
-        <v>25.30231094360352</v>
-      </c>
-      <c r="G93">
+      <c r="F93" t="n">
+        <v>25.30231285095215</v>
+      </c>
+      <c r="G93" t="n">
         <v>198700</v>
       </c>
-      <c r="H93">
+      <c r="H93" t="n">
         <v>0.01384733715350328</v>
       </c>
-      <c r="I93">
+      <c r="I93" t="n">
         <v>0.07669329120190831</v>
       </c>
-      <c r="J93">
+      <c r="J93" t="n">
         <v>0.495033051760829</v>
       </c>
-      <c r="K93">
+      <c r="K93" t="n">
         <v>0.495033051760829</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="2">
+    <row r="94">
+      <c r="A94" s="2" t="n">
         <v>43101</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="n">
         <v>29.65999984741211</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="n">
         <v>29.70000076293945</v>
       </c>
-      <c r="D94">
+      <c r="D94" t="n">
         <v>29.09000015258789</v>
       </c>
-      <c r="E94">
+      <c r="E94" t="n">
         <v>29.35000038146973</v>
       </c>
-      <c r="F94">
-        <v>27.41317558288574</v>
-      </c>
-      <c r="G94">
+      <c r="F94" t="n">
+        <v>27.41317367553711</v>
+      </c>
+      <c r="G94" t="n">
         <v>480000</v>
       </c>
-      <c r="H94">
+      <c r="H94" t="n">
         <v>0.08342562628837569</v>
       </c>
-      <c r="I94">
+      <c r="I94" t="n">
         <v>0.07672522319421278</v>
       </c>
-      <c r="J94">
+      <c r="J94" t="n">
         <v>0.4536899259591654</v>
       </c>
-      <c r="K94">
+      <c r="K94" t="n">
         <v>0.4536899259591654</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="2">
+    <row r="95">
+      <c r="A95" s="2" t="n">
         <v>43132</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="n">
         <v>26.84000015258789</v>
       </c>
-      <c r="C95">
+      <c r="C95" t="n">
         <v>26.85000038146973</v>
       </c>
-      <c r="D95">
+      <c r="D95" t="n">
         <v>26.27000045776367</v>
       </c>
-      <c r="E95">
+      <c r="E95" t="n">
         <v>26.29000091552734</v>
       </c>
-      <c r="F95">
-        <v>24.55510330200195</v>
-      </c>
-      <c r="G95">
+      <c r="F95" t="n">
+        <v>24.55510711669922</v>
+      </c>
+      <c r="G95" t="n">
         <v>368600</v>
       </c>
-      <c r="H95">
+      <c r="H95" t="n">
         <v>-0.1042589242306903</v>
       </c>
-      <c r="I95">
+      <c r="I95" t="n">
         <v>0.07713315365073987</v>
       </c>
-      <c r="J95">
+      <c r="J95" t="n">
         <v>0.2513089304676563</v>
       </c>
-      <c r="K95">
+      <c r="K95" t="n">
         <v>0.2513089304676563</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="2">
+    <row r="96">
+      <c r="A96" s="2" t="n">
         <v>43160</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="n">
         <v>25.10000038146973</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="n">
         <v>25.18000030517578</v>
       </c>
-      <c r="D96">
+      <c r="D96" t="n">
         <v>24.8700008392334</v>
       </c>
-      <c r="E96">
+      <c r="E96" t="n">
         <v>25.10000038146973</v>
       </c>
-      <c r="F96">
-        <v>23.44363212585449</v>
-      </c>
-      <c r="G96">
+      <c r="F96" t="n">
+        <v>23.44363403320312</v>
+      </c>
+      <c r="G96" t="n">
         <v>640700</v>
       </c>
-      <c r="H96">
+      <c r="H96" t="n">
         <v>-0.0452643778096935</v>
       </c>
-      <c r="I96">
+      <c r="I96" t="n">
         <v>0.07687965007676413</v>
       </c>
-      <c r="J96">
+      <c r="J96" t="n">
         <v>0.1631140162283728</v>
       </c>
-      <c r="K96">
+      <c r="K96" t="n">
         <v>0.1631140162283728</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="2">
+    <row r="97">
+      <c r="A97" s="2" t="n">
         <v>43191</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="n">
         <v>25.18000030517578</v>
       </c>
-      <c r="C97">
+      <c r="C97" t="n">
         <v>25.20999908447266</v>
       </c>
-      <c r="D97">
+      <c r="D97" t="n">
         <v>24.82999992370605</v>
       </c>
-      <c r="E97">
+      <c r="E97" t="n">
         <v>24.82999992370605</v>
       </c>
-      <c r="F97">
-        <v>23.19145011901855</v>
-      </c>
-      <c r="G97">
+      <c r="F97" t="n">
+        <v>23.19145202636719</v>
+      </c>
+      <c r="G97" t="n">
         <v>435600</v>
       </c>
-      <c r="H97">
+      <c r="H97" t="n">
         <v>-0.01075699018566556</v>
       </c>
-      <c r="I97">
+      <c r="I97" t="n">
         <v>0.07648195603543058</v>
       </c>
-      <c r="J97">
+      <c r="J97" t="n">
         <v>0.04503365675575899</v>
       </c>
-      <c r="K97">
+      <c r="K97" t="n">
         <v>0.04503365675575899</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="2">
+    <row r="98">
+      <c r="A98" s="2" t="n">
         <v>43221</v>
       </c>
-      <c r="B98">
+      <c r="B98" t="n">
         <v>22.72999954223633</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="n">
         <v>22.77000045776367</v>
       </c>
-      <c r="D98">
+      <c r="D98" t="n">
         <v>22.56999969482422</v>
       </c>
-      <c r="E98">
+      <c r="E98" t="n">
         <v>22.68000030517578</v>
       </c>
-      <c r="F98">
-        <v>21.18332862854004</v>
-      </c>
-      <c r="G98">
+      <c r="F98" t="n">
+        <v>21.1833324432373</v>
+      </c>
+      <c r="G98" t="n">
         <v>772700</v>
       </c>
-      <c r="H98">
+      <c r="H98" t="n">
         <v>-0.08658878876908871</v>
       </c>
-      <c r="I98">
+      <c r="I98" t="n">
         <v>0.07661965165457992</v>
       </c>
-      <c r="J98">
+      <c r="J98" t="n">
         <v>-0.04905660618785468</v>
       </c>
-      <c r="K98">
+      <c r="K98" t="n">
         <v>-0.04905660618785468</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="2">
+    <row r="99">
+      <c r="A99" s="2" t="n">
         <v>43252</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="n">
         <v>21.55999946594238</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="n">
         <v>21.85000038146973</v>
       </c>
-      <c r="D99">
+      <c r="D99" t="n">
         <v>21.55999946594238</v>
       </c>
-      <c r="E99">
+      <c r="E99" t="n">
         <v>21.78000068664551</v>
       </c>
-      <c r="F99">
+      <c r="F99" t="n">
         <v>20.35917854309082</v>
       </c>
-      <c r="G99">
+      <c r="G99" t="n">
         <v>437000</v>
       </c>
-      <c r="H99">
+      <c r="H99" t="n">
         <v>-0.03968252232892988</v>
       </c>
-      <c r="I99">
+      <c r="I99" t="n">
         <v>0.07633449960022906</v>
       </c>
-      <c r="J99">
+      <c r="J99" t="n">
         <v>-0.1029654007124905</v>
       </c>
-      <c r="K99">
+      <c r="K99" t="n">
         <v>-0.1029654007124905</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="2">
+    <row r="100">
+      <c r="A100" s="2" t="n">
         <v>43282</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="n">
         <v>24.45000076293945</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="n">
         <v>24.51000022888184</v>
       </c>
-      <c r="D100">
+      <c r="D100" t="n">
         <v>24.23999977111816</v>
       </c>
-      <c r="E100">
+      <c r="E100" t="n">
         <v>24.35000038146973</v>
       </c>
-      <c r="F100">
-        <v>22.76152420043945</v>
-      </c>
-      <c r="G100">
+      <c r="F100" t="n">
+        <v>22.76152038574219</v>
+      </c>
+      <c r="G100" t="n">
         <v>357000</v>
       </c>
-      <c r="H100">
+      <c r="H100" t="n">
         <v>0.1179981457209056</v>
       </c>
-      <c r="I100">
+      <c r="I100" t="n">
         <v>0.07685205705598169</v>
       </c>
-      <c r="J100">
+      <c r="J100" t="n">
         <v>-0.05729769828137032</v>
       </c>
-      <c r="K100">
+      <c r="K100" t="n">
         <v>-0.05729769828137032</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
-      <c r="A101" s="2">
+    <row r="101">
+      <c r="A101" s="2" t="n">
         <v>43313</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="n">
         <v>24.27000045776367</v>
       </c>
-      <c r="C101">
+      <c r="C101" t="n">
         <v>24.39999961853027</v>
       </c>
-      <c r="D101">
+      <c r="D101" t="n">
         <v>24.02000045776367</v>
       </c>
-      <c r="E101">
+      <c r="E101" t="n">
         <v>24.13999938964844</v>
       </c>
-      <c r="F101">
-        <v>22.56521987915039</v>
-      </c>
-      <c r="G101">
+      <c r="F101" t="n">
+        <v>22.56522178649902</v>
+      </c>
+      <c r="G101" t="n">
         <v>394900</v>
       </c>
-      <c r="H101">
+      <c r="H101" t="n">
         <v>-0.008624270576237825</v>
       </c>
-      <c r="I101">
+      <c r="I101" t="n">
         <v>0.07646687314725226</v>
       </c>
-      <c r="J101">
+      <c r="J101" t="n">
         <v>-0.1180124717042365</v>
       </c>
-      <c r="K101">
+      <c r="K101" t="n">
         <v>-0.1180124717042365</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
-      <c r="A102" s="2">
+    <row r="102">
+      <c r="A102" s="2" t="n">
         <v>43344</v>
       </c>
-      <c r="B102">
+      <c r="B102" t="n">
         <v>23.75</v>
       </c>
-      <c r="C102">
+      <c r="C102" t="n">
         <v>23.97999954223633</v>
       </c>
-      <c r="D102">
+      <c r="D102" t="n">
         <v>23.70999908447266</v>
       </c>
-      <c r="E102">
+      <c r="E102" t="n">
         <v>23.86000061035156</v>
       </c>
-      <c r="F102">
-        <v>22.30348968505859</v>
-      </c>
-      <c r="G102">
+      <c r="F102" t="n">
+        <v>22.30348777770996</v>
+      </c>
+      <c r="G102" t="n">
         <v>405200</v>
       </c>
-      <c r="H102">
+      <c r="H102" t="n">
         <v>-0.01159895552511658</v>
       </c>
-      <c r="I102">
+      <c r="I102" t="n">
         <v>0.07609224199779709</v>
       </c>
-      <c r="J102">
+      <c r="J102" t="n">
         <v>-0.1003016516401831</v>
       </c>
-      <c r="K102">
+      <c r="K102" t="n">
         <v>-0.1003016516401831</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
-      <c r="A103" s="2">
+    <row r="103">
+      <c r="A103" s="2" t="n">
         <v>43374</v>
       </c>
-      <c r="B103">
+      <c r="B103" t="n">
         <v>21.54999923706055</v>
       </c>
-      <c r="C103">
+      <c r="C103" t="n">
         <v>21.6299991607666</v>
       </c>
-      <c r="D103">
+      <c r="D103" t="n">
         <v>21.47999954223633</v>
       </c>
-      <c r="E103">
+      <c r="E103" t="n">
         <v>21.47999954223633</v>
       </c>
-      <c r="F103">
-        <v>20.07874488830566</v>
-      </c>
-      <c r="G103">
+      <c r="F103" t="n">
+        <v>20.07875061035156</v>
+      </c>
+      <c r="G103" t="n">
         <v>617400</v>
       </c>
-      <c r="H103">
+      <c r="H103" t="n">
         <v>-0.0997485753241214</v>
       </c>
-      <c r="I103">
+      <c r="I103" t="n">
         <v>0.07638581284636596</v>
       </c>
-      <c r="J103">
+      <c r="J103" t="n">
         <v>-0.2062084269709252</v>
       </c>
-      <c r="K103">
+      <c r="K103" t="n">
         <v>-0.2062084269709252</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
-      <c r="A104" s="2">
+    <row r="104">
+      <c r="A104" s="2" t="n">
         <v>43405</v>
       </c>
-      <c r="B104">
+      <c r="B104" t="n">
         <v>23.29000091552734</v>
       </c>
-      <c r="C104">
+      <c r="C104" t="n">
         <v>23.39999961853027</v>
       </c>
-      <c r="D104">
+      <c r="D104" t="n">
         <v>23.18000030517578</v>
       </c>
-      <c r="E104">
+      <c r="E104" t="n">
         <v>23.28000068664551</v>
       </c>
-      <c r="F104">
-        <v>21.76132583618164</v>
-      </c>
-      <c r="G104">
+      <c r="F104" t="n">
+        <v>21.76132392883301</v>
+      </c>
+      <c r="G104" t="n">
         <v>482600</v>
       </c>
-      <c r="H104">
+      <c r="H104" t="n">
         <v>0.08379893774531144</v>
       </c>
-      <c r="I104">
+      <c r="I104" t="n">
         <v>0.07644683444536719</v>
       </c>
-      <c r="J104">
+      <c r="J104" t="n">
         <v>-0.1287424668828376</v>
       </c>
-      <c r="K104">
+      <c r="K104" t="n">
         <v>-0.1287424668828376</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
-      <c r="A105" s="2">
+    <row r="105">
+      <c r="A105" s="2" t="n">
         <v>43435</v>
       </c>
-      <c r="B105">
+      <c r="B105" t="n">
         <v>23.15999984741211</v>
       </c>
-      <c r="C105">
+      <c r="C105" t="n">
         <v>23.15999984741211</v>
       </c>
-      <c r="D105">
+      <c r="D105" t="n">
         <v>22.92000007629395</v>
       </c>
-      <c r="E105">
+      <c r="E105" t="n">
         <v>23.03000068664551</v>
       </c>
-      <c r="F105">
-        <v>21.82191467285156</v>
-      </c>
-      <c r="G105">
+      <c r="F105" t="n">
+        <v>21.82191276550293</v>
+      </c>
+      <c r="G105" t="n">
         <v>591000</v>
       </c>
-      <c r="H105">
+      <c r="H105" t="n">
         <v>-0.0107388312983776</v>
       </c>
-      <c r="I105">
+      <c r="I105" t="n">
         <v>0.07608133687140624</v>
       </c>
-      <c r="J105">
+      <c r="J105" t="n">
         <v>-0.1498707804752276</v>
       </c>
-      <c r="K105">
+      <c r="K105" t="n">
         <v>-0.1498707804752276</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
-      <c r="A106" s="2">
+    <row r="106">
+      <c r="A106" s="2" t="n">
         <v>43466</v>
       </c>
-      <c r="B106">
+      <c r="B106" t="n">
         <v>24.18000030517578</v>
       </c>
-      <c r="C106">
+      <c r="C106" t="n">
         <v>24.38999938964844</v>
       </c>
-      <c r="D106">
+      <c r="D106" t="n">
         <v>24.13999938964844</v>
       </c>
-      <c r="E106">
+      <c r="E106" t="n">
         <v>24.34000015258789</v>
       </c>
-      <c r="F106">
+      <c r="F106" t="n">
         <v>23.06319427490234</v>
       </c>
-      <c r="G106">
+      <c r="G106" t="n">
         <v>355500</v>
       </c>
-      <c r="H106">
+      <c r="H106" t="n">
         <v>0.05688230251343485</v>
       </c>
-      <c r="I106">
+      <c r="I106" t="n">
         <v>0.07590380786454516</v>
       </c>
-      <c r="J106">
+      <c r="J106" t="n">
         <v>-0.1706984723599843</v>
       </c>
-      <c r="K106">
+      <c r="K106" t="n">
         <v>-0.1706984723599843</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
-      <c r="A107" s="2">
+    <row r="107">
+      <c r="A107" s="2" t="n">
         <v>43497</v>
       </c>
-      <c r="B107">
+      <c r="B107" t="n">
         <v>23.46999931335449</v>
       </c>
-      <c r="C107">
+      <c r="C107" t="n">
         <v>23.47999954223633</v>
       </c>
-      <c r="D107">
+      <c r="D107" t="n">
         <v>23.30999946594238</v>
       </c>
-      <c r="E107">
+      <c r="E107" t="n">
         <v>23.34000015258789</v>
       </c>
-      <c r="F107">
-        <v>22.11565399169922</v>
-      </c>
-      <c r="G107">
+      <c r="F107" t="n">
+        <v>22.11565017700195</v>
+      </c>
+      <c r="G107" t="n">
         <v>328800</v>
       </c>
-      <c r="H107">
+      <c r="H107" t="n">
         <v>-0.04108463408919405</v>
       </c>
-      <c r="I107">
+      <c r="I107" t="n">
         <v>0.0756565122428848</v>
       </c>
-      <c r="J107">
+      <c r="J107" t="n">
         <v>-0.1122099908789707</v>
       </c>
-      <c r="K107">
+      <c r="K107" t="n">
         <v>-0.1122099908789707</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
-      <c r="A108" s="2">
+    <row r="108">
+      <c r="A108" s="2" t="n">
         <v>43525</v>
       </c>
-      <c r="B108">
+      <c r="B108" t="n">
         <v>22.90999984741211</v>
       </c>
-      <c r="C108">
+      <c r="C108" t="n">
         <v>22.95000076293945</v>
       </c>
-      <c r="D108">
+      <c r="D108" t="n">
         <v>22.81999969482422</v>
       </c>
-      <c r="E108">
+      <c r="E108" t="n">
         <v>22.8799991607666</v>
       </c>
-      <c r="F108">
+      <c r="F108" t="n">
         <v>21.67978096008301</v>
       </c>
-      <c r="G108">
+      <c r="G108" t="n">
         <v>249300</v>
       </c>
-      <c r="H108">
+      <c r="H108" t="n">
         <v>-0.01970869703573186</v>
       </c>
-      <c r="I108">
+      <c r="I108" t="n">
         <v>0.07532456510543437</v>
       </c>
-      <c r="J108">
+      <c r="J108" t="n">
         <v>-0.08844626242882681</v>
       </c>
-      <c r="K108">
+      <c r="K108" t="n">
         <v>-0.08844626242882681</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
-      <c r="A109" s="2">
+    <row r="109">
+      <c r="A109" s="2" t="n">
         <v>43556</v>
       </c>
-      <c r="B109">
+      <c r="B109" t="n">
         <v>23.11000061035156</v>
       </c>
-      <c r="C109">
+      <c r="C109" t="n">
         <v>23.28000068664551</v>
       </c>
-      <c r="D109">
+      <c r="D109" t="n">
         <v>23.05999946594238</v>
       </c>
-      <c r="E109">
+      <c r="E109" t="n">
         <v>23.25</v>
       </c>
-      <c r="F109">
-        <v>22.03037261962891</v>
-      </c>
-      <c r="G109">
+      <c r="F109" t="n">
+        <v>22.03037071228027</v>
+      </c>
+      <c r="G109" t="n">
         <v>213600</v>
       </c>
-      <c r="H109">
+      <c r="H109" t="n">
         <v>0.01617136594427215</v>
       </c>
-      <c r="I109">
+      <c r="I109" t="n">
         <v>0.07498151909666874</v>
       </c>
-      <c r="J109">
+      <c r="J109" t="n">
         <v>-0.06363269949902717</v>
       </c>
-      <c r="K109">
+      <c r="K109" t="n">
         <v>-0.06363269949902717</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
-      <c r="A110" s="2">
+    <row r="110">
+      <c r="A110" s="2" t="n">
         <v>43586</v>
       </c>
-      <c r="B110">
+      <c r="B110" t="n">
         <v>21.96999931335449</v>
       </c>
-      <c r="C110">
+      <c r="C110" t="n">
         <v>22.35000038146973</v>
       </c>
-      <c r="D110">
+      <c r="D110" t="n">
         <v>21.96999931335449</v>
       </c>
-      <c r="E110">
+      <c r="E110" t="n">
         <v>22.32999992370605</v>
       </c>
-      <c r="F110">
-        <v>21.15863609313965</v>
-      </c>
-      <c r="G110">
+      <c r="F110" t="n">
+        <v>21.15863227844238</v>
+      </c>
+      <c r="G110" t="n">
         <v>362800</v>
       </c>
-      <c r="H110">
+      <c r="H110" t="n">
         <v>-0.03956989575457825</v>
       </c>
-      <c r="I110">
+      <c r="I110" t="n">
         <v>0.07473645504038159</v>
       </c>
-      <c r="J110">
+      <c r="J110" t="n">
         <v>-0.01543211537743472</v>
       </c>
-      <c r="K110">
+      <c r="K110" t="n">
         <v>-0.01543211537743472</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
-      <c r="A111" s="2">
+    <row r="111">
+      <c r="A111" s="2" t="n">
         <v>43617</v>
       </c>
-      <c r="B111">
+      <c r="B111" t="n">
         <v>23.77000045776367</v>
       </c>
-      <c r="C111">
+      <c r="C111" t="n">
         <v>23.80999946594238</v>
       </c>
-      <c r="D111">
+      <c r="D111" t="n">
         <v>23.68000030517578</v>
       </c>
-      <c r="E111">
+      <c r="E111" t="n">
         <v>23.75</v>
       </c>
-      <c r="F111">
-        <v>22.54362487792969</v>
-      </c>
-      <c r="G111">
+      <c r="F111" t="n">
+        <v>22.54362297058105</v>
+      </c>
+      <c r="G111" t="n">
         <v>205600</v>
       </c>
-      <c r="H111">
+      <c r="H111" t="n">
         <v>0.06359158446688751</v>
       </c>
-      <c r="I111">
+      <c r="I111" t="n">
         <v>0.07462757396766156</v>
       </c>
-      <c r="J111">
+      <c r="J111" t="n">
         <v>0.09044991970833149</v>
       </c>
-      <c r="K111">
+      <c r="K111" t="n">
         <v>0.09044991970833149</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
-      <c r="A112" s="2">
+    <row r="112">
+      <c r="A112" s="2" t="n">
         <v>43647</v>
       </c>
-      <c r="B112">
+      <c r="B112" t="n">
         <v>22.57999992370605</v>
       </c>
-      <c r="C112">
+      <c r="C112" t="n">
         <v>22.64999961853027</v>
       </c>
-      <c r="D112">
+      <c r="D112" t="n">
         <v>22.1200008392334</v>
       </c>
-      <c r="E112">
+      <c r="E112" t="n">
         <v>22.34000015258789</v>
       </c>
-      <c r="F112">
-        <v>21.20524597167969</v>
-      </c>
-      <c r="G112">
+      <c r="F112" t="n">
+        <v>21.20524406433105</v>
+      </c>
+      <c r="G112" t="n">
         <v>347200</v>
       </c>
-      <c r="H112">
+      <c r="H112" t="n">
         <v>-0.05936841462787834</v>
       </c>
-      <c r="I112">
+      <c r="I112" t="n">
         <v>0.07451451675920523</v>
       </c>
-      <c r="J112">
+      <c r="J112" t="n">
         <v>-0.08254620933851975</v>
       </c>
-      <c r="K112">
+      <c r="K112" t="n">
         <v>-0.08254620933851975</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
-      <c r="A113" s="2">
+    <row r="113">
+      <c r="A113" s="2" t="n">
         <v>43678</v>
       </c>
-      <c r="B113">
+      <c r="B113" t="n">
         <v>20.61000061035156</v>
       </c>
-      <c r="C113">
+      <c r="C113" t="n">
         <v>20.70999908447266</v>
       </c>
-      <c r="D113">
+      <c r="D113" t="n">
         <v>20.52000045776367</v>
       </c>
-      <c r="E113">
+      <c r="E113" t="n">
         <v>20.6299991607666</v>
       </c>
-      <c r="F113">
-        <v>19.58210563659668</v>
-      </c>
-      <c r="G113">
+      <c r="F113" t="n">
+        <v>19.58210372924805</v>
+      </c>
+      <c r="G113" t="n">
         <v>169100</v>
       </c>
-      <c r="H113">
+      <c r="H113" t="n">
         <v>-0.07654435900365031</v>
       </c>
-      <c r="I113">
+      <c r="I113" t="n">
         <v>0.07454343014345861</v>
       </c>
-      <c r="J113">
+      <c r="J113" t="n">
         <v>-0.1454018358586608</v>
       </c>
-      <c r="K113">
+      <c r="K113" t="n">
         <v>-0.1454018358586608</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
-      <c r="A114" s="2">
+    <row r="114">
+      <c r="A114" s="2" t="n">
         <v>43709</v>
       </c>
-      <c r="B114">
+      <c r="B114" t="n">
         <v>20.54000091552734</v>
       </c>
-      <c r="C114">
+      <c r="C114" t="n">
         <v>20.75</v>
       </c>
-      <c r="D114">
+      <c r="D114" t="n">
         <v>20.54000091552734</v>
       </c>
-      <c r="E114">
+      <c r="E114" t="n">
         <v>20.63999938964844</v>
       </c>
-      <c r="F114">
-        <v>19.59159469604492</v>
-      </c>
-      <c r="G114">
+      <c r="F114" t="n">
+        <v>19.59159660339355</v>
+      </c>
+      <c r="G114" t="n">
         <v>211500</v>
       </c>
-      <c r="H114">
+      <c r="H114" t="n">
         <v>0.0004847420886402443</v>
       </c>
-      <c r="I114">
+      <c r="I114" t="n">
         <v>0.07420689302315682</v>
       </c>
-      <c r="J114">
+      <c r="J114" t="n">
         <v>-0.1349539454456736</v>
       </c>
-      <c r="K114">
+      <c r="K114" t="n">
         <v>-0.1349539454456736</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
-      <c r="A115" s="2">
+    <row r="115">
+      <c r="A115" s="2" t="n">
         <v>43739</v>
       </c>
-      <c r="B115">
+      <c r="B115" t="n">
         <v>21.97999954223633</v>
       </c>
-      <c r="C115">
+      <c r="C115" t="n">
         <v>21.98999977111816</v>
       </c>
-      <c r="D115">
+      <c r="D115" t="n">
         <v>21.79000091552734</v>
       </c>
-      <c r="E115">
+      <c r="E115" t="n">
         <v>21.89999961853027</v>
       </c>
-      <c r="F115">
-        <v>20.78759574890137</v>
-      </c>
-      <c r="G115">
+      <c r="F115" t="n">
+        <v>20.78759765625</v>
+      </c>
+      <c r="G115" t="n">
         <v>158900</v>
       </c>
-      <c r="H115">
+      <c r="H115" t="n">
         <v>0.06104652452236814</v>
       </c>
-      <c r="I115">
+      <c r="I115" t="n">
         <v>0.07409242981521691</v>
       </c>
-      <c r="J115">
+      <c r="J115" t="n">
         <v>0.01955307659425665</v>
       </c>
-      <c r="K115">
+      <c r="K115" t="n">
         <v>0.01955307659425665</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
-      <c r="A116" s="2">
+    <row r="116">
+      <c r="A116" s="2" t="n">
         <v>43770</v>
       </c>
-      <c r="B116">
+      <c r="B116" t="n">
         <v>21.02000045776367</v>
       </c>
-      <c r="C116">
+      <c r="C116" t="n">
         <v>21.06999969482422</v>
       </c>
-      <c r="D116">
+      <c r="D116" t="n">
         <v>20.97999954223633</v>
       </c>
-      <c r="E116">
+      <c r="E116" t="n">
         <v>20.98999977111816</v>
       </c>
-      <c r="F116">
+      <c r="F116" t="n">
         <v>19.92381858825684</v>
       </c>
-      <c r="G116">
+      <c r="G116" t="n">
         <v>149400</v>
       </c>
-      <c r="H116">
+      <c r="H116" t="n">
         <v>-0.04155250517183251</v>
       </c>
-      <c r="I116">
+      <c r="I116" t="n">
         <v>0.07387279851124619</v>
       </c>
-      <c r="J116">
+      <c r="J116" t="n">
         <v>-0.09836773401991328</v>
       </c>
-      <c r="K116">
+      <c r="K116" t="n">
         <v>-0.09836773401991328</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
-      <c r="A117" s="2">
+    <row r="117">
+      <c r="A117" s="2" t="n">
         <v>43800</v>
       </c>
-      <c r="B117">
+      <c r="B117" t="n">
         <v>21.11000061035156</v>
       </c>
-      <c r="C117">
+      <c r="C117" t="n">
         <v>21.14999961853027</v>
       </c>
-      <c r="D117">
+      <c r="D117" t="n">
         <v>21.03000068664551</v>
       </c>
-      <c r="E117">
+      <c r="E117" t="n">
         <v>21.07999992370605</v>
       </c>
-      <c r="F117">
+      <c r="F117" t="n">
         <v>20.4853572845459</v>
       </c>
-      <c r="G117">
+      <c r="G117" t="n">
         <v>233800</v>
       </c>
-      <c r="H117">
+      <c r="H117" t="n">
         <v>0.004287763390627974</v>
       </c>
-      <c r="I117">
+      <c r="I117" t="n">
         <v>0.07354876320569553</v>
       </c>
-      <c r="J117">
+      <c r="J117" t="n">
         <v>-0.08467219734258224</v>
       </c>
-      <c r="K117">
+      <c r="K117" t="n">
         <v>-0.08467219734258224</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
-      <c r="A118" s="2">
+    <row r="118">
+      <c r="A118" s="2" t="n">
         <v>43831</v>
       </c>
-      <c r="B118">
+      <c r="B118" t="n">
         <v>19.96999931335449</v>
       </c>
-      <c r="C118">
+      <c r="C118" t="n">
         <v>20.04999923706055</v>
       </c>
-      <c r="D118">
+      <c r="D118" t="n">
         <v>19.8700008392334</v>
       </c>
-      <c r="E118">
+      <c r="E118" t="n">
         <v>20.03000068664551</v>
       </c>
-      <c r="F118">
+      <c r="F118" t="n">
         <v>19.46497535705566</v>
       </c>
-      <c r="G118">
+      <c r="G118" t="n">
         <v>345700</v>
       </c>
-      <c r="H118">
+      <c r="H118" t="n">
         <v>-0.04981021066701918</v>
       </c>
-      <c r="I118">
+      <c r="I118" t="n">
         <v>0.07337962154155453</v>
       </c>
-      <c r="J118">
+      <c r="J118" t="n">
         <v>-0.1770747509828644</v>
       </c>
-      <c r="K118">
+      <c r="K118" t="n">
         <v>-0.1770747509828644</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
-      <c r="A119" s="2">
+    <row r="119">
+      <c r="A119" s="2" t="n">
         <v>43862</v>
       </c>
-      <c r="B119">
+      <c r="B119" t="n">
         <v>16.88999938964844</v>
       </c>
-      <c r="C119">
+      <c r="C119" t="n">
         <v>17.10000038146973</v>
       </c>
-      <c r="D119">
+      <c r="D119" t="n">
         <v>16.71999931335449</v>
       </c>
-      <c r="E119">
+      <c r="E119" t="n">
         <v>17.06999969482422</v>
       </c>
-      <c r="F119">
+      <c r="F119" t="n">
         <v>16.58847427368164</v>
       </c>
-      <c r="G119">
+      <c r="G119" t="n">
         <v>798100</v>
       </c>
-      <c r="H119">
+      <c r="H119" t="n">
         <v>-0.1477783769520684</v>
       </c>
-      <c r="I119">
+      <c r="I119" t="n">
         <v>0.07433725496717952</v>
       </c>
-      <c r="J119">
+      <c r="J119" t="n">
         <v>-0.2686375499902671</v>
       </c>
-      <c r="K119">
+      <c r="K119" t="n">
         <v>-0.2686375499902671</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
-      <c r="A120" s="2">
+    <row r="120">
+      <c r="A120" s="2" t="n">
         <v>43891</v>
       </c>
-      <c r="B120">
+      <c r="B120" t="n">
         <v>13.73999977111816</v>
       </c>
-      <c r="C120">
+      <c r="C120" t="n">
         <v>13.85000038146973</v>
       </c>
-      <c r="D120">
+      <c r="D120" t="n">
         <v>13.60000038146973</v>
       </c>
-      <c r="E120">
+      <c r="E120" t="n">
         <v>13.73999977111816</v>
       </c>
-      <c r="F120">
+      <c r="F120" t="n">
         <v>13.35240936279297</v>
       </c>
-      <c r="G120">
+      <c r="G120" t="n">
         <v>235200</v>
       </c>
-      <c r="H120">
+      <c r="H120" t="n">
         <v>-0.1950790851341223</v>
       </c>
-      <c r="I120">
+      <c r="I120" t="n">
         <v>0.07614931598557097</v>
       </c>
-      <c r="J120">
+      <c r="J120" t="n">
         <v>-0.3994755124519943</v>
       </c>
-      <c r="K120">
+      <c r="K120" t="n">
         <v>-0.3994755124519943</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
-      <c r="A121" s="2">
+    <row r="121">
+      <c r="A121" s="2" t="n">
         <v>43922</v>
       </c>
-      <c r="B121">
+      <c r="B121" t="n">
         <v>15.02000045776367</v>
       </c>
-      <c r="C121">
+      <c r="C121" t="n">
         <v>15.11999988555908</v>
       </c>
-      <c r="D121">
+      <c r="D121" t="n">
         <v>14.82999992370605</v>
       </c>
-      <c r="E121">
+      <c r="E121" t="n">
         <v>14.86999988555908</v>
       </c>
-      <c r="F121">
-        <v>14.45053386688232</v>
-      </c>
-      <c r="G121">
+      <c r="F121" t="n">
+        <v>14.45053291320801</v>
+      </c>
+      <c r="G121" t="n">
         <v>196800</v>
       </c>
-      <c r="H121">
+      <c r="H121" t="n">
         <v>0.08224163997558476</v>
       </c>
-      <c r="I121">
+      <c r="I121" t="n">
         <v>0.07622219387048243</v>
       </c>
-      <c r="J121">
+      <c r="J121" t="n">
         <v>-0.3604301124490717</v>
       </c>
-      <c r="K121">
+      <c r="K121" t="n">
         <v>-0.3604301124490717</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
-      <c r="A122" s="2">
+    <row r="122">
+      <c r="A122" s="2" t="n">
         <v>43952</v>
       </c>
-      <c r="B122">
+      <c r="B122" t="n">
         <v>16.19000053405762</v>
       </c>
-      <c r="C122">
+      <c r="C122" t="n">
         <v>16.47999954223633</v>
       </c>
-      <c r="D122">
+      <c r="D122" t="n">
         <v>16.14999961853027</v>
       </c>
-      <c r="E122">
+      <c r="E122" t="n">
         <v>16.39999961853027</v>
       </c>
-      <c r="F122">
+      <c r="F122" t="n">
         <v>15.93737316131592</v>
       </c>
-      <c r="G122">
+      <c r="G122" t="n">
         <v>145100</v>
       </c>
-      <c r="H122">
+      <c r="H122" t="n">
         <v>0.1028917111463492</v>
       </c>
-      <c r="I122">
+      <c r="I122" t="n">
         <v>0.07649964048533264</v>
       </c>
-      <c r="J122">
+      <c r="J122" t="n">
         <v>-0.2655620387566752</v>
       </c>
-      <c r="K122">
+      <c r="K122" t="n">
         <v>-0.2655620387566752</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
-      <c r="A123" s="2">
+    <row r="123">
+      <c r="A123" s="2" t="n">
         <v>43983</v>
       </c>
-      <c r="B123">
+      <c r="B123" t="n">
         <v>16.65999984741211</v>
       </c>
-      <c r="C123">
+      <c r="C123" t="n">
         <v>16.75</v>
       </c>
-      <c r="D123">
+      <c r="D123" t="n">
         <v>16.53000068664551</v>
       </c>
-      <c r="E123">
+      <c r="E123" t="n">
         <v>16.61000061035156</v>
       </c>
-      <c r="F123">
+      <c r="F123" t="n">
         <v>16.30640029907227</v>
       </c>
-      <c r="G123">
+      <c r="G123" t="n">
         <v>192500</v>
       </c>
-      <c r="H123">
+      <c r="H123" t="n">
         <v>0.01280493882353562</v>
       </c>
-      <c r="I123">
+      <c r="I123" t="n">
         <v>0.0762272966690162</v>
       </c>
-      <c r="J123">
+      <c r="J123" t="n">
         <v>-0.3006315532483552</v>
       </c>
-      <c r="K123">
+      <c r="K123" t="n">
         <v>-0.3006315532483552</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
-      <c r="A124" s="2">
+    <row r="124">
+      <c r="A124" s="2" t="n">
         <v>44013</v>
       </c>
-      <c r="B124">
+      <c r="B124" t="n">
         <v>17.68000030517578</v>
       </c>
-      <c r="C124">
+      <c r="C124" t="n">
         <v>17.79999923706055</v>
       </c>
-      <c r="D124">
+      <c r="D124" t="n">
         <v>17.42000007629395</v>
       </c>
-      <c r="E124">
+      <c r="E124" t="n">
         <v>17.59000015258789</v>
       </c>
-      <c r="F124">
+      <c r="F124" t="n">
         <v>17.26848793029785</v>
       </c>
-      <c r="G124">
+      <c r="G124" t="n">
         <v>369100</v>
       </c>
-      <c r="H124">
+      <c r="H124" t="n">
         <v>0.05900057231940026</v>
       </c>
-      <c r="I124">
+      <c r="I124" t="n">
         <v>0.07409661511612844</v>
       </c>
-      <c r="J124">
+      <c r="J124" t="n">
         <v>-0.2126230961305412</v>
       </c>
-      <c r="K124">
+      <c r="K124" t="n">
         <v>-0.2126230961305412</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
-      <c r="A125" s="2">
+    <row r="125">
+      <c r="A125" s="2" t="n">
         <v>44044</v>
       </c>
-      <c r="B125">
+      <c r="B125" t="n">
         <v>18.21999931335449</v>
       </c>
-      <c r="C125">
+      <c r="C125" t="n">
         <v>18.26000022888184</v>
       </c>
-      <c r="D125">
+      <c r="D125" t="n">
         <v>18.05999946594238</v>
       </c>
-      <c r="E125">
+      <c r="E125" t="n">
         <v>18.13999938964844</v>
       </c>
-      <c r="F125">
+      <c r="F125" t="n">
         <v>17.80843544006348</v>
       </c>
-      <c r="G125">
+      <c r="G125" t="n">
         <v>930000</v>
       </c>
-      <c r="H125">
+      <c r="H125" t="n">
         <v>0.03126772213129447</v>
       </c>
-      <c r="I125">
+      <c r="I125" t="n">
         <v>0.07401171918336431</v>
       </c>
-      <c r="J125">
+      <c r="J125" t="n">
         <v>-0.120698006418418</v>
       </c>
-      <c r="K125">
+      <c r="K125" t="n">
         <v>-0.120698006418418</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
-      <c r="A126" s="2">
+    <row r="126">
+      <c r="A126" s="2" t="n">
         <v>44075</v>
       </c>
-      <c r="B126">
+      <c r="B126" t="n">
         <v>16.48999977111816</v>
       </c>
-      <c r="C126">
+      <c r="C126" t="n">
         <v>16.60000038146973</v>
       </c>
-      <c r="D126">
+      <c r="D126" t="n">
         <v>16.43000030517578</v>
       </c>
-      <c r="E126">
+      <c r="E126" t="n">
         <v>16.45999908447266</v>
       </c>
-      <c r="F126">
-        <v>16.15914154052734</v>
-      </c>
-      <c r="G126">
+      <c r="F126" t="n">
+        <v>16.15913963317871</v>
+      </c>
+      <c r="G126" t="n">
         <v>127800</v>
       </c>
-      <c r="H126">
+      <c r="H126" t="n">
         <v>-0.09261302986230924</v>
       </c>
-      <c r="I126">
+      <c r="I126" t="n">
         <v>0.07266643311325631</v>
       </c>
-      <c r="J126">
+      <c r="J126" t="n">
         <v>-0.2025194006193708</v>
       </c>
-      <c r="K126">
+      <c r="K126" t="n">
         <v>-0.2025194006193708</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
-      <c r="A127" s="2">
+    <row r="127">
+      <c r="A127" s="2" t="n">
         <v>44105</v>
       </c>
-      <c r="B127">
+      <c r="B127" t="n">
         <v>13.89999961853027</v>
       </c>
-      <c r="C127">
+      <c r="C127" t="n">
         <v>13.96000003814697</v>
       </c>
-      <c r="D127">
+      <c r="D127" t="n">
         <v>13.72000026702881</v>
       </c>
-      <c r="E127">
+      <c r="E127" t="n">
         <v>13.92000007629395</v>
       </c>
-      <c r="F127">
+      <c r="F127" t="n">
         <v>13.66556835174561</v>
       </c>
-      <c r="G127">
+      <c r="G127" t="n">
         <v>239600</v>
       </c>
-      <c r="H127">
+      <c r="H127" t="n">
         <v>-0.1543134355684618</v>
       </c>
-      <c r="I127">
+      <c r="I127" t="n">
         <v>0.07366457512992877</v>
       </c>
-      <c r="J127">
+      <c r="J127" t="n">
         <v>-0.3643835470884758</v>
       </c>
-      <c r="K127">
+      <c r="K127" t="n">
         <v>-0.3643835470884758</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
-      <c r="A128" s="2">
+    <row r="128">
+      <c r="A128" s="2" t="n">
         <v>44136</v>
       </c>
-      <c r="B128">
+      <c r="B128" t="n">
         <v>17.79999923706055</v>
       </c>
-      <c r="C128">
+      <c r="C128" t="n">
         <v>17.86000061035156</v>
       </c>
-      <c r="D128">
+      <c r="D128" t="n">
         <v>17.46999931335449</v>
       </c>
-      <c r="E128">
+      <c r="E128" t="n">
         <v>17.5</v>
       </c>
-      <c r="F128">
+      <c r="F128" t="n">
         <v>17.18013381958008</v>
       </c>
-      <c r="G128">
+      <c r="G128" t="n">
         <v>137800</v>
       </c>
-      <c r="H128">
+      <c r="H128" t="n">
         <v>0.2571839011554942</v>
       </c>
-      <c r="I128">
+      <c r="I128" t="n">
         <v>0.07677616791591374</v>
       </c>
-      <c r="J128">
+      <c r="J128" t="n">
         <v>-0.1662696431240717</v>
       </c>
-      <c r="K128">
+      <c r="K128" t="n">
         <v>-0.1662696431240717</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
-      <c r="A129" s="2">
+    <row r="129">
+      <c r="A129" s="2" t="n">
         <v>44166</v>
       </c>
-      <c r="B129">
+      <c r="B129" t="n">
         <v>19.13999938964844</v>
       </c>
-      <c r="C129">
+      <c r="C129" t="n">
         <v>19.15999984741211</v>
       </c>
-      <c r="D129">
+      <c r="D129" t="n">
         <v>18.90999984741211</v>
       </c>
-      <c r="E129">
+      <c r="E129" t="n">
         <v>19.02000045776367</v>
       </c>
-      <c r="F129">
+      <c r="F129" t="n">
         <v>18.76922988891602</v>
       </c>
-      <c r="G129">
+      <c r="G129" t="n">
         <v>170400</v>
       </c>
-      <c r="H129">
+      <c r="H129" t="n">
         <v>0.08685716901506702</v>
       </c>
-      <c r="I129">
+      <c r="I129" t="n">
         <v>0.07661211012654109</v>
       </c>
-      <c r="J129">
+      <c r="J129" t="n">
         <v>-0.09772293517068553</v>
       </c>
-      <c r="K129">
+      <c r="K129" t="n">
         <v>-0.09772293517068553</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
-      <c r="A130" s="2">
+    <row r="130">
+      <c r="A130" s="2" t="n">
         <v>44197</v>
       </c>
-      <c r="B130">
+      <c r="B130" t="n">
         <v>19.10000038146973</v>
       </c>
-      <c r="C130">
+      <c r="C130" t="n">
         <v>19.10000038146973</v>
       </c>
-      <c r="D130">
+      <c r="D130" t="n">
         <v>18.76000022888184</v>
       </c>
-      <c r="E130">
+      <c r="E130" t="n">
         <v>18.77000045776367</v>
       </c>
-      <c r="F130">
+      <c r="F130" t="n">
         <v>18.52252578735352</v>
       </c>
-      <c r="G130">
+      <c r="G130" t="n">
         <v>491300</v>
       </c>
-      <c r="H130">
+      <c r="H130" t="n">
         <v>-0.01314405856903933</v>
       </c>
-      <c r="I130">
+      <c r="I130" t="n">
         <v>0.07660668636227133</v>
       </c>
-      <c r="J130">
+      <c r="J130" t="n">
         <v>-0.06290565080818544</v>
       </c>
-      <c r="K130">
+      <c r="K130" t="n">
         <v>-0.06290565080818544</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
-      <c r="A131" s="2">
+    <row r="131">
+      <c r="A131" s="2" t="n">
         <v>44228</v>
       </c>
-      <c r="B131">
+      <c r="B131" t="n">
         <v>18.8799991607666</v>
       </c>
-      <c r="C131">
+      <c r="C131" t="n">
         <v>18.89999961853027</v>
       </c>
-      <c r="D131">
+      <c r="D131" t="n">
         <v>18.64999961853027</v>
       </c>
-      <c r="E131">
+      <c r="E131" t="n">
         <v>18.67000007629395</v>
       </c>
-      <c r="F131">
-        <v>18.42384338378906</v>
-      </c>
-      <c r="G131">
+      <c r="F131" t="n">
+        <v>18.4238452911377</v>
+      </c>
+      <c r="G131" t="n">
         <v>198500</v>
       </c>
-      <c r="H131">
+      <c r="H131" t="n">
         <v>-0.005327670699569076</v>
       </c>
-      <c r="I131">
+      <c r="I131" t="n">
         <v>0.07660209663613231</v>
       </c>
-      <c r="J131">
+      <c r="J131" t="n">
         <v>0.09373171705180883</v>
       </c>
-      <c r="K131">
+      <c r="K131" t="n">
         <v>0.09373171705180883</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
-      <c r="A132" s="2">
+    <row r="132">
+      <c r="A132" s="2" t="n">
         <v>44256</v>
       </c>
-      <c r="B132">
+      <c r="B132" t="n">
         <v>18</v>
       </c>
-      <c r="C132">
+      <c r="C132" t="n">
         <v>18.14999961853027</v>
       </c>
-      <c r="D132">
+      <c r="D132" t="n">
         <v>17.96999931335449</v>
       </c>
-      <c r="E132">
+      <c r="E132" t="n">
         <v>18.10000038146973</v>
       </c>
-      <c r="F132">
-        <v>17.86135864257812</v>
-      </c>
-      <c r="G132">
+      <c r="F132" t="n">
+        <v>17.86136054992676</v>
+      </c>
+      <c r="G132" t="n">
         <v>131900</v>
       </c>
-      <c r="H132">
+      <c r="H132" t="n">
         <v>-0.03053024598258947</v>
       </c>
-      <c r="I132">
+      <c r="I132" t="n">
         <v>0.0765269042937741</v>
       </c>
-      <c r="J132">
+      <c r="J132" t="n">
         <v>0.3173217382082056</v>
       </c>
-      <c r="K132">
+      <c r="K132" t="n">
         <v>0.3173217382082056</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
-      <c r="A133" s="2">
+    <row r="133">
+      <c r="A133" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B133">
+      <c r="B133" t="n">
         <v>20.05999946594238</v>
       </c>
-      <c r="C133">
+      <c r="C133" t="n">
         <v>20.14999961853027</v>
       </c>
-      <c r="D133">
+      <c r="D133" t="n">
         <v>19.71999931335449</v>
       </c>
-      <c r="E133">
+      <c r="E133" t="n">
         <v>19.84000015258789</v>
       </c>
-      <c r="F133">
+      <c r="F133" t="n">
         <v>19.57841873168945</v>
       </c>
-      <c r="G133">
+      <c r="G133" t="n">
         <v>107900</v>
       </c>
-      <c r="H133">
+      <c r="H133" t="n">
         <v>0.09613258201361852</v>
       </c>
-      <c r="I133">
+      <c r="I133" t="n">
         <v>0.07640584120913606</v>
       </c>
-      <c r="J133">
+      <c r="J133" t="n">
         <v>0.3342300138048688</v>
       </c>
-      <c r="K133">
+      <c r="K133" t="n">
         <v>0.3342300138048688</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
-      <c r="A134" s="2">
+    <row r="134">
+      <c r="A134" s="2" t="n">
         <v>44317</v>
       </c>
-      <c r="B134">
+      <c r="B134" t="n">
         <v>22.30999946594238</v>
       </c>
-      <c r="C134">
+      <c r="C134" t="n">
         <v>22.56999969482422</v>
       </c>
-      <c r="D134">
+      <c r="D134" t="n">
         <v>22.1299991607666</v>
       </c>
-      <c r="E134">
+      <c r="E134" t="n">
         <v>22.54000091552734</v>
       </c>
-      <c r="F134">
+      <c r="F134" t="n">
         <v>22.24282073974609</v>
       </c>
-      <c r="G134">
+      <c r="G134" t="n">
         <v>97400</v>
       </c>
-      <c r="H134">
+      <c r="H134" t="n">
         <v>0.1360887470853809</v>
       </c>
-      <c r="I134">
+      <c r="I134" t="n">
         <v>0.07740724664118534</v>
       </c>
-      <c r="J134">
+      <c r="J134" t="n">
         <v>0.3743903316960762</v>
       </c>
-      <c r="K134">
+      <c r="K134" t="n">
         <v>0.3743903316960762</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
-      <c r="A135" s="2">
+    <row r="135">
+      <c r="A135" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="B135">
+      <c r="B135" t="n">
         <v>21.60000038146973</v>
       </c>
-      <c r="C135">
+      <c r="C135" t="n">
         <v>21.63999938964844</v>
       </c>
-      <c r="D135">
+      <c r="D135" t="n">
         <v>21.36000061035156</v>
       </c>
-      <c r="E135">
+      <c r="E135" t="n">
         <v>21.46999931335449</v>
       </c>
-      <c r="F135">
+      <c r="F135" t="n">
         <v>21.24470329284668</v>
       </c>
-      <c r="G135">
+      <c r="G135" t="n">
         <v>170600</v>
       </c>
-      <c r="H135">
+      <c r="H135" t="n">
         <v>-0.04747123153112875</v>
       </c>
-      <c r="I135">
+      <c r="I135" t="n">
         <v>0.07742878009279226</v>
       </c>
-      <c r="J135">
+      <c r="J135" t="n">
         <v>0.2925947335591377</v>
       </c>
-      <c r="K135">
+      <c r="K135" t="n">
         <v>0.2925947335591377</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
-      <c r="A136" s="2">
+    <row r="136">
+      <c r="A136" s="2" t="n">
         <v>44378</v>
       </c>
-      <c r="B136">
+      <c r="B136" t="n">
         <v>21.68000030517578</v>
       </c>
-      <c r="C136">
+      <c r="C136" t="n">
         <v>21.85000038146973</v>
       </c>
-      <c r="D136">
+      <c r="D136" t="n">
         <v>21.68000030517578</v>
       </c>
-      <c r="E136">
+      <c r="E136" t="n">
         <v>21.79999923706055</v>
       </c>
-      <c r="F136">
+      <c r="F136" t="n">
         <v>21.57124137878418</v>
       </c>
-      <c r="G136">
+      <c r="G136" t="n">
         <v>86200</v>
       </c>
-      <c r="H136">
+      <c r="H136" t="n">
         <v>0.01537028105542571</v>
       </c>
-      <c r="I136">
+      <c r="I136" t="n">
         <v>0.07731287041714358</v>
       </c>
-      <c r="J136">
+      <c r="J136" t="n">
         <v>0.2393404802701646</v>
       </c>
-      <c r="K136">
+      <c r="K136" t="n">
         <v>0.2393404802701646</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
-      <c r="A137" s="2">
+    <row r="137">
+      <c r="A137" s="2" t="n">
         <v>44409</v>
       </c>
-      <c r="B137">
+      <c r="B137" t="n">
         <v>23</v>
       </c>
-      <c r="C137">
+      <c r="C137" t="n">
         <v>23.13999938964844</v>
       </c>
-      <c r="D137">
+      <c r="D137" t="n">
         <v>22.96999931335449</v>
       </c>
-      <c r="E137">
+      <c r="E137" t="n">
         <v>23.10000038146973</v>
       </c>
-      <c r="F137">
+      <c r="F137" t="n">
         <v>22.85759925842285</v>
       </c>
-      <c r="G137">
+      <c r="G137" t="n">
         <v>95700</v>
       </c>
-      <c r="H137">
+      <c r="H137" t="n">
         <v>0.05963308210576201</v>
       </c>
-      <c r="I137">
+      <c r="I137" t="n">
         <v>0.07659182292432702</v>
       </c>
-      <c r="J137">
+      <c r="J137" t="n">
         <v>0.2734289503147231</v>
       </c>
-      <c r="K137">
+      <c r="K137" t="n">
         <v>0.2734289503147231</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
-      <c r="A138" s="2">
+    <row r="138">
+      <c r="A138" s="2" t="n">
         <v>44440</v>
       </c>
-      <c r="B138">
+      <c r="B138" t="n">
         <v>21.97999954223633</v>
       </c>
-      <c r="C138">
+      <c r="C138" t="n">
         <v>22.05999946594238</v>
       </c>
-      <c r="D138">
+      <c r="D138" t="n">
         <v>21.79000091552734</v>
       </c>
-      <c r="E138">
+      <c r="E138" t="n">
         <v>21.92000007629395</v>
       </c>
-      <c r="F138">
+      <c r="F138" t="n">
         <v>21.68998146057129</v>
       </c>
-      <c r="G138">
+      <c r="G138" t="n">
         <v>123200</v>
       </c>
-      <c r="H138">
+      <c r="H138" t="n">
         <v>-0.05108226344975952</v>
       </c>
-      <c r="I138">
+      <c r="I138" t="n">
         <v>0.0736051520600991</v>
       </c>
-      <c r="J138">
+      <c r="J138" t="n">
         <v>0.3317133229352311</v>
       </c>
-      <c r="K138">
+      <c r="K138" t="n">
         <v>0.3317133229352311</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
-      <c r="A139" s="2">
+    <row r="139">
+      <c r="A139" s="2" t="n">
         <v>44470</v>
       </c>
-      <c r="B139">
+      <c r="B139" t="n">
         <v>23.25</v>
       </c>
-      <c r="C139">
+      <c r="C139" t="n">
         <v>23.30999946594238</v>
       </c>
-      <c r="D139">
+      <c r="D139" t="n">
         <v>23.1299991607666</v>
       </c>
-      <c r="E139">
+      <c r="E139" t="n">
         <v>23.26000022888184</v>
       </c>
-      <c r="F139">
+      <c r="F139" t="n">
         <v>23.01592063903809</v>
       </c>
-      <c r="G139">
+      <c r="G139" t="n">
         <v>306700</v>
       </c>
-      <c r="H139">
+      <c r="H139" t="n">
         <v>0.06113139360966868</v>
       </c>
-      <c r="I139">
+      <c r="I139" t="n">
         <v>0.07249690689649209</v>
       </c>
-      <c r="J139">
+      <c r="J139" t="n">
         <v>0.6709770187784776</v>
       </c>
-      <c r="K139">
+      <c r="K139" t="n">
         <v>0.6709770187784776</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
-      <c r="A140" s="2">
+    <row r="140">
+      <c r="A140" s="2" t="n">
         <v>44501</v>
       </c>
-      <c r="B140">
+      <c r="B140" t="n">
         <v>20.45000076293945</v>
       </c>
-      <c r="C140">
+      <c r="C140" t="n">
         <v>20.59000015258789</v>
       </c>
-      <c r="D140">
+      <c r="D140" t="n">
         <v>20.28000068664551</v>
       </c>
-      <c r="E140">
+      <c r="E140" t="n">
         <v>20.44000053405762</v>
       </c>
-      <c r="F140">
+      <c r="F140" t="n">
         <v>20.22551345825195</v>
       </c>
-      <c r="G140">
+      <c r="G140" t="n">
         <v>1502800</v>
       </c>
-      <c r="H140">
+      <c r="H140" t="n">
         <v>-0.1212381628149185</v>
       </c>
-      <c r="I140">
+      <c r="I140" t="n">
         <v>0.07297629590940198</v>
       </c>
-      <c r="J140">
+      <c r="J140" t="n">
         <v>0.1680000305175782</v>
       </c>
-      <c r="K140">
+      <c r="K140" t="n">
         <v>0.1680000305175782</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
-      <c r="A141" s="2">
+    <row r="141">
+      <c r="A141" s="2" t="n">
         <v>44531</v>
       </c>
-      <c r="B141">
+      <c r="B141" t="n">
         <v>21.04999923706055</v>
       </c>
-      <c r="C141">
+      <c r="C141" t="n">
         <v>21.18000030517578</v>
       </c>
-      <c r="D141">
+      <c r="D141" t="n">
         <v>20.98999977111816</v>
       </c>
-      <c r="E141">
+      <c r="E141" t="n">
         <v>21.05999946594238</v>
       </c>
-      <c r="F141">
+      <c r="F141" t="n">
         <v>21.05999946594238</v>
       </c>
-      <c r="G141">
+      <c r="G141" t="n">
         <v>74200</v>
       </c>
-      <c r="H141">
+      <c r="H141" t="n">
         <v>0.03033262796895286</v>
       </c>
-      <c r="I141">
+      <c r="I141" t="n">
         <v>0.0721462493198501</v>
       </c>
-      <c r="J141">
+      <c r="J141" t="n">
         <v>0.1072554657771323</v>
       </c>
-      <c r="K141">
+      <c r="K141" t="n">
         <v>0.1072554657771323</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
-      <c r="A142" s="2">
+    <row r="142">
+      <c r="A142" s="2" t="n">
         <v>44562</v>
       </c>
-      <c r="B142">
-        <v>21.3700008392334</v>
-      </c>
-      <c r="C142">
-        <v>21.37660026550293</v>
-      </c>
-      <c r="D142">
-        <v>21.29000091552734</v>
-      </c>
-      <c r="E142">
-        <v>21.34079933166504</v>
-      </c>
-      <c r="F142">
-        <v>21.34079933166504</v>
-      </c>
-      <c r="G142">
-        <v>68077</v>
-      </c>
-      <c r="H142">
-        <v>0.01333332729550918</v>
-      </c>
-      <c r="I142">
-        <v>0.07049331419574154</v>
-      </c>
-      <c r="J142">
-        <v>0.1369631758766436</v>
-      </c>
-      <c r="K142">
-        <v>0.1369631758766436</v>
+      <c r="B142" t="n">
+        <v>21.46999931335449</v>
+      </c>
+      <c r="C142" t="n">
+        <v>21.52000045776367</v>
+      </c>
+      <c r="D142" t="n">
+        <v>21.42499923706055</v>
+      </c>
+      <c r="E142" t="n">
+        <v>21.47999954223633</v>
+      </c>
+      <c r="F142" t="n">
+        <v>21.47999954223633</v>
+      </c>
+      <c r="G142" t="n">
+        <v>47817</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.01994302407144688</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.07050558537352795</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.1443792764188103</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0.1443792764188103</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>